--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544BBB64-F959-49EE-9D5C-210BCFFB471D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56751C-95F7-4326-9C8E-025A4AA0E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="121">
   <si>
     <t>form_title</t>
   </si>
@@ -299,12 +299,6 @@
     <t>PITAOUDÈ</t>
   </si>
   <si>
-    <t>bj_oncho_stop_3_202306_diag</t>
-  </si>
-  <si>
-    <t>(2023 Juin) ONCHO Stop TDM - 3. Résultats de laboratoire</t>
-  </si>
-  <si>
     <t>barcode</t>
   </si>
   <si>
@@ -366,6 +360,39 @@
   </si>
   <si>
     <t>select_one results</t>
+  </si>
+  <si>
+    <t>select_one id_type</t>
+  </si>
+  <si>
+    <t>Type d'identification</t>
+  </si>
+  <si>
+    <t>d_id_type</t>
+  </si>
+  <si>
+    <t>d_manual_id</t>
+  </si>
+  <si>
+    <t>id_type</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>(2023 Juin) ONCHO Stop TDM - 3. Résultats de laboratoire V1.2</t>
+  </si>
+  <si>
+    <t>bj_oncho_stop_3_202306_diag_v1_2</t>
+  </si>
+  <si>
+    <t>${d_id_type} = 'Manuel'</t>
+  </si>
+  <si>
+    <t>${d_id_type} = 'Scanner'</t>
   </si>
 </sst>
 </file>
@@ -477,7 +504,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -534,9 +561,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -828,13 +852,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,7 +920,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>16</v>
@@ -924,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>37</v>
@@ -946,7 +970,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>30</v>
@@ -962,121 +986,133 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="22"/>
+        <v>110</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>102</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="I6" s="13"/>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="13"/>
       <c r="J7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="20"/>
+        <v>93</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="D10" s="20"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1088,19 +1124,55 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1110,11 +1182,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1251,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>23</v>
@@ -1190,7 +1262,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>24</v>
@@ -1201,79 +1273,79 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1284,10 +1356,10 @@
         <v>35</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1298,52 +1370,48 @@
         <v>35</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
@@ -1352,13 +1420,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1368,13 +1436,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1384,13 +1452,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1400,10 +1468,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
@@ -1416,13 +1484,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1432,13 +1500,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1448,66 +1516,66 @@
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>72</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="3"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -1520,14 +1588,14 @@
         <v>41</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -1536,14 +1604,14 @@
         <v>41</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -1552,10 +1620,10 @@
         <v>41</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -1568,10 +1636,10 @@
         <v>41</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
@@ -1584,10 +1652,10 @@
         <v>41</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
@@ -1600,10 +1668,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
@@ -1616,14 +1684,14 @@
         <v>41</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -1632,14 +1700,14 @@
         <v>41</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -1648,14 +1716,14 @@
         <v>41</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -1664,14 +1732,14 @@
         <v>41</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -1680,10 +1748,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
@@ -1696,10 +1764,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
@@ -1712,14 +1780,14 @@
         <v>41</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -1728,14 +1796,14 @@
         <v>41</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F43" s="3"/>
     </row>
@@ -1744,14 +1812,14 @@
         <v>41</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F44" s="3"/>
     </row>
@@ -1760,14 +1828,14 @@
         <v>41</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -1776,10 +1844,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
@@ -1792,10 +1860,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
@@ -1808,14 +1876,14 @@
         <v>41</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" s="3"/>
     </row>
@@ -1824,14 +1892,14 @@
         <v>41</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F49" s="3"/>
     </row>
@@ -1840,10 +1908,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
@@ -1856,10 +1924,10 @@
         <v>41</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
@@ -1872,14 +1940,14 @@
         <v>41</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F52" s="3"/>
     </row>
@@ -1888,14 +1956,14 @@
         <v>41</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F53" s="3"/>
     </row>
@@ -1904,10 +1972,10 @@
         <v>41</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
@@ -1916,14 +1984,36 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
+      <c r="A55" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
@@ -1971,14 +2061,14 @@
       <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -1986,41 +2076,51 @@
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A78:B123">
-    <sortCondition ref="B78:B123"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A80:B125">
+    <sortCondition ref="B80:B125"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2032,13 +2132,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2061,10 +2161,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>20201130</v>

--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56751C-95F7-4326-9C8E-025A4AA0E77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9509F1-792D-421F-B6C3-437907ABF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="439">
   <si>
     <t>form_title</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Code à deux chiffres qui vous a été assigné</t>
   </si>
   <si>
-    <t>Entrer le nom du grappe</t>
-  </si>
-  <si>
     <t>Notes additionnelles</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Sélectionner une commune</t>
   </si>
   <si>
-    <t>BAKO</t>
-  </si>
-  <si>
     <t>DJABATA</t>
   </si>
   <si>
@@ -212,15 +206,6 @@
     <t>OKPARA</t>
   </si>
   <si>
-    <t>OUBEROU</t>
-  </si>
-  <si>
-    <t>TCHALENGA</t>
-  </si>
-  <si>
-    <t>TEROU</t>
-  </si>
-  <si>
     <t>Le code doit être un nombre à deux chiffres entre 9 et 99</t>
   </si>
   <si>
@@ -230,12 +215,6 @@
     <t>PIRA</t>
   </si>
   <si>
-    <t>PENESOULOU</t>
-  </si>
-  <si>
-    <t>BESSÈ</t>
-  </si>
-  <si>
     <t>KABOUA</t>
   </si>
   <si>
@@ -245,60 +224,18 @@
     <t>KIKA</t>
   </si>
   <si>
-    <t>ADON KABOURÉ</t>
-  </si>
-  <si>
-    <t>AKOUTA OSSE</t>
-  </si>
-  <si>
-    <t>ARIGBOKOTO</t>
-  </si>
-  <si>
     <t>ASSION</t>
   </si>
   <si>
-    <t>DOGUE</t>
-  </si>
-  <si>
-    <t>KIKELE</t>
-  </si>
-  <si>
-    <t>ODOKOUDJÈ</t>
-  </si>
-  <si>
-    <t>ENGARADEBOU</t>
-  </si>
-  <si>
     <t>SALMANGA</t>
   </si>
   <si>
-    <t>BESSE OWODÉ</t>
-  </si>
-  <si>
     <t>IGBODJA</t>
   </si>
   <si>
-    <t>OKÉOWO</t>
-  </si>
-  <si>
-    <t>SINAOU</t>
-  </si>
-  <si>
-    <t>WARI MARO</t>
-  </si>
-  <si>
-    <t>KOKOBE</t>
-  </si>
-  <si>
-    <t>GBONGBONTOUTA</t>
-  </si>
-  <si>
     <t>KAWADO</t>
   </si>
   <si>
-    <t>PITAOUDÈ</t>
-  </si>
-  <si>
     <t>barcode</t>
   </si>
   <si>
@@ -329,24 +266,12 @@
     <t>Numéro d'identification du test</t>
   </si>
   <si>
-    <t>Ligne de contrôle positive visible</t>
-  </si>
-  <si>
-    <t>d_control</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
     <t>select_one yes_no</t>
   </si>
   <si>
-    <t>d_ov16_result</t>
-  </si>
-  <si>
-    <t>Résultat OV16</t>
-  </si>
-  <si>
     <t>Positif</t>
   </si>
   <si>
@@ -383,25 +308,1061 @@
     <t>Manuel</t>
   </si>
   <si>
-    <t>(2023 Juin) ONCHO Stop TDM - 3. Résultats de laboratoire V1.2</t>
-  </si>
-  <si>
-    <t>bj_oncho_stop_3_202306_diag_v1_2</t>
-  </si>
-  <si>
     <t>${d_id_type} = 'Manuel'</t>
   </si>
   <si>
     <t>${d_id_type} = 'Scanner'</t>
+  </si>
+  <si>
+    <t>(2023 Juillet) ONCHO Stop TDM - 3. Résultats de laboratoire V2</t>
+  </si>
+  <si>
+    <t>bj_oncho_stop_3_202306_diag_v2</t>
+  </si>
+  <si>
+    <t>Entrer le nom du village</t>
+  </si>
+  <si>
+    <t>d_ov16_result_1</t>
+  </si>
+  <si>
+    <t>d_ov16_result_2</t>
+  </si>
+  <si>
+    <t>Résultat OV16 du test 2</t>
+  </si>
+  <si>
+    <t>${d_ov16_result_1} = 'Indéterminé'</t>
+  </si>
+  <si>
+    <t>d_control_1</t>
+  </si>
+  <si>
+    <t>Ligne de contrôle positive visible du test 1</t>
+  </si>
+  <si>
+    <t>Résultat OV16 du test 1</t>
+  </si>
+  <si>
+    <t>Ligne de contrôle positive visible du test 2</t>
+  </si>
+  <si>
+    <t>d_elisa_result</t>
+  </si>
+  <si>
+    <t>d_elisa_value_od</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>ELISA - Valeur OD</t>
+  </si>
+  <si>
+    <t>ELISA - Décision final</t>
+  </si>
+  <si>
+    <t>${d_ov16_result_1} != 'Indéterminé' and ${d_ov16_result_2} != 'Indéterminé'</t>
+  </si>
+  <si>
+    <t>d_manual_id2</t>
+  </si>
+  <si>
+    <t>Répéter le numéro d'identification du test</t>
+  </si>
+  <si>
+    <t>. = ${d_manual_id}</t>
+  </si>
+  <si>
+    <t>Le code répéter doit être le même</t>
+  </si>
+  <si>
+    <t>AGOUA</t>
+  </si>
+  <si>
+    <t>AKPASSI</t>
+  </si>
+  <si>
+    <t>ATOKOLIBE</t>
+  </si>
+  <si>
+    <t>BOBE</t>
+  </si>
+  <si>
+    <t>GOUKA</t>
+  </si>
+  <si>
+    <t>KOKO</t>
+  </si>
+  <si>
+    <t>LOUGBA</t>
+  </si>
+  <si>
+    <t>ALEDJO</t>
+  </si>
+  <si>
+    <t>MANIGRI</t>
+  </si>
+  <si>
+    <t>PENESSOULOU</t>
+  </si>
+  <si>
+    <t>BADJOUDE</t>
+  </si>
+  <si>
+    <t>KOMDE</t>
+  </si>
+  <si>
+    <t>SEMERE 1</t>
+  </si>
+  <si>
+    <t>SEMERE 2</t>
+  </si>
+  <si>
+    <t>TCHALINGA</t>
+  </si>
+  <si>
+    <t>ADIDO</t>
+  </si>
+  <si>
+    <t>BESSE</t>
+  </si>
+  <si>
+    <t>BONI</t>
+  </si>
+  <si>
+    <t>OFFE</t>
+  </si>
+  <si>
+    <t>PLATEAU</t>
+  </si>
+  <si>
+    <t>SAKIN</t>
+  </si>
+  <si>
+    <t>ALAFIAROU</t>
+  </si>
+  <si>
+    <t>GORO</t>
+  </si>
+  <si>
+    <t>SANSON</t>
+  </si>
+  <si>
+    <t>TCHATCHOU</t>
+  </si>
+  <si>
+    <t>AGBABOUÉ</t>
+  </si>
+  <si>
+    <t>ATTI</t>
+  </si>
+  <si>
+    <t>DJALOUMON</t>
+  </si>
+  <si>
+    <t>IGBOÈ</t>
+  </si>
+  <si>
+    <t>ISSALÈ OTIN</t>
+  </si>
+  <si>
+    <t>KINGOUN</t>
+  </si>
+  <si>
+    <t>TCHOUI</t>
+  </si>
+  <si>
+    <t>CLOUBOU</t>
+  </si>
+  <si>
+    <t>KADJOGBÉ (AGOUA)</t>
+  </si>
+  <si>
+    <t>N’TCHOCHÉ</t>
+  </si>
+  <si>
+    <t>N’TCHON</t>
+  </si>
+  <si>
+    <t>BANON</t>
+  </si>
+  <si>
+    <t>ILLAGBO</t>
+  </si>
+  <si>
+    <t>ILLARÉ</t>
+  </si>
+  <si>
+    <t>OKOTO</t>
+  </si>
+  <si>
+    <t>AGBASSA</t>
+  </si>
+  <si>
+    <t>AGRAMAROU</t>
+  </si>
+  <si>
+    <t>AYÉGOUROU</t>
+  </si>
+  <si>
+    <t>BABAROU</t>
+  </si>
+  <si>
+    <t>KODA</t>
+  </si>
+  <si>
+    <t>OLOUNGBÉ</t>
+  </si>
+  <si>
+    <t>AKARADÈ</t>
+  </si>
+  <si>
+    <t>ALÉDJO</t>
+  </si>
+  <si>
+    <t>BOUTOU</t>
+  </si>
+  <si>
+    <t>IGADOUGOU</t>
+  </si>
+  <si>
+    <t>KADÉGUÉ</t>
+  </si>
+  <si>
+    <t>KAOUTÉ</t>
+  </si>
+  <si>
+    <t>NIBADARA</t>
+  </si>
+  <si>
+    <t>PARTAGO</t>
+  </si>
+  <si>
+    <t>TCHIMBÉRI</t>
+  </si>
+  <si>
+    <t>AGBON</t>
+  </si>
+  <si>
+    <t>ALOBA</t>
+  </si>
+  <si>
+    <t>ATOKOLIBÉ</t>
+  </si>
+  <si>
+    <t>MALOMI</t>
+  </si>
+  <si>
+    <t>ODJOGBILÈ</t>
+  </si>
+  <si>
+    <t>OGUÉDÉ</t>
+  </si>
+  <si>
+    <t>OKOUTA-ORO</t>
+  </si>
+  <si>
+    <t>AKPADÉ</t>
+  </si>
+  <si>
+    <t>ALITOKOUM</t>
+  </si>
+  <si>
+    <t>ATCHANKOMOU</t>
+  </si>
+  <si>
+    <t>BADJOUDÉ</t>
+  </si>
+  <si>
+    <t>BISSÉTOUGOU</t>
+  </si>
+  <si>
+    <t>BOHOMDO</t>
+  </si>
+  <si>
+    <t>ITCHODÉ</t>
+  </si>
+  <si>
+    <t>KADOLASSI</t>
+  </si>
+  <si>
+    <t>KAKPALA</t>
+  </si>
+  <si>
+    <t>KOMTCHA</t>
+  </si>
+  <si>
+    <t>PAMOU</t>
+  </si>
+  <si>
+    <t>TALINTA</t>
+  </si>
+  <si>
+    <t>TCHITCHAKOU</t>
+  </si>
+  <si>
+    <t>ADJANTÈ</t>
+  </si>
+  <si>
+    <t>BASSON</t>
+  </si>
+  <si>
+    <t>GBÉGAMEY</t>
+  </si>
+  <si>
+    <t>ILLÉLAKOUN</t>
+  </si>
+  <si>
+    <t>ADJIRO</t>
+  </si>
+  <si>
+    <t>AORO-LOKPA</t>
+  </si>
+  <si>
+    <t>AORO-NAGA</t>
+  </si>
+  <si>
+    <t>APPI</t>
+  </si>
+  <si>
+    <t>BASSILA AGNIHOU TADJA</t>
+  </si>
+  <si>
+    <t>BASSILA ATONONKA</t>
+  </si>
+  <si>
+    <t>BASSILA BAKABAKA</t>
+  </si>
+  <si>
+    <t>BIGUINA AKPASSA</t>
+  </si>
+  <si>
+    <t>BIGUINA HOLOUDÈ</t>
+  </si>
+  <si>
+    <t>BIGUINA TOSSO</t>
+  </si>
+  <si>
+    <t>DIÉPANI-BALIMBOLI</t>
+  </si>
+  <si>
+    <t>DOGUÈ</t>
+  </si>
+  <si>
+    <t>FRIGNIOU</t>
+  </si>
+  <si>
+    <t>GUIGUISSO</t>
+  </si>
+  <si>
+    <t>KIKÉLÉ</t>
+  </si>
+  <si>
+    <t>KOÏWALI</t>
+  </si>
+  <si>
+    <t>KPRÈKÈTÈ</t>
+  </si>
+  <si>
+    <t>BESSÉ OWODÉ</t>
+  </si>
+  <si>
+    <t>KADJOGBÉ</t>
+  </si>
+  <si>
+    <t>ADAMOU-KPARA</t>
+  </si>
+  <si>
+    <t>BANIGRI</t>
+  </si>
+  <si>
+    <t>BÉTÉROU</t>
+  </si>
+  <si>
+    <t>KAKI KOKA</t>
+  </si>
+  <si>
+    <t>KPAWA</t>
+  </si>
+  <si>
+    <t>KPESSOU</t>
+  </si>
+  <si>
+    <t>OUBÉROU</t>
+  </si>
+  <si>
+    <t>SINAHOU</t>
+  </si>
+  <si>
+    <t>SOMOU - GAH</t>
+  </si>
+  <si>
+    <t>TCHOKPASSI</t>
+  </si>
+  <si>
+    <t>WARI-MARO</t>
+  </si>
+  <si>
+    <t>YÉBESSI</t>
+  </si>
+  <si>
+    <t>ASSABA</t>
+  </si>
+  <si>
+    <t>BOBÈ</t>
+  </si>
+  <si>
+    <t>DJAGBALLO</t>
+  </si>
+  <si>
+    <t>FOMON</t>
+  </si>
+  <si>
+    <t>SOULA</t>
+  </si>
+  <si>
+    <t>ADJÉGOULÈ</t>
+  </si>
+  <si>
+    <t>AGBADJO</t>
+  </si>
+  <si>
+    <t>AGBAÏGODO</t>
+  </si>
+  <si>
+    <t>AWO SÉRIKI</t>
+  </si>
+  <si>
+    <t>DJANGBÉ</t>
+  </si>
+  <si>
+    <t>KILIBO-OGBO</t>
+  </si>
+  <si>
+    <t>MADINA</t>
+  </si>
+  <si>
+    <t>TCHOUGBÉ</t>
+  </si>
+  <si>
+    <t>GBÉBA</t>
+  </si>
+  <si>
+    <t>NIM SOUAMBOU</t>
+  </si>
+  <si>
+    <t>WOUKPO</t>
+  </si>
+  <si>
+    <t>GALATA</t>
+  </si>
+  <si>
+    <t>GALATA-IGBERI</t>
+  </si>
+  <si>
+    <t>GBÈDJÈ</t>
+  </si>
+  <si>
+    <t>KAFÉGNIGBÉ</t>
+  </si>
+  <si>
+    <t>KAMALA-IDJOU</t>
+  </si>
+  <si>
+    <t>MAMATCHOKÉ</t>
+  </si>
+  <si>
+    <t>MAYAMON</t>
+  </si>
+  <si>
+    <t>MONTÈWO- ATAKÈ- AGBADO</t>
+  </si>
+  <si>
+    <t>SAKO</t>
+  </si>
+  <si>
+    <t>ZONGO (GOUKA)</t>
+  </si>
+  <si>
+    <t>ALAFIA</t>
+  </si>
+  <si>
+    <t>ATÈSSÈ</t>
+  </si>
+  <si>
+    <t>BAAKO</t>
+  </si>
+  <si>
+    <t>BABAGUIDAÏ</t>
+  </si>
+  <si>
+    <t>GAH AKÉÉKÉÉ</t>
+  </si>
+  <si>
+    <t>GOGORO</t>
+  </si>
+  <si>
+    <t>MONTÈWO</t>
+  </si>
+  <si>
+    <t>OKÉ OLOU -OSSIN</t>
+  </si>
+  <si>
+    <t>OKÉ OLOU-OTIN</t>
+  </si>
+  <si>
+    <t>OKOUNFO</t>
+  </si>
+  <si>
+    <t>TCHAYAGBANGBA</t>
+  </si>
+  <si>
+    <t>BONWOUBÉROU</t>
+  </si>
+  <si>
+    <t>BOUAY</t>
+  </si>
+  <si>
+    <t>CAMP ZATO</t>
+  </si>
+  <si>
+    <t>GOUROUBARA</t>
+  </si>
+  <si>
+    <t>KABO</t>
+  </si>
+  <si>
+    <t>KIKA-BARRAGE</t>
+  </si>
+  <si>
+    <t>KOKOBÈ</t>
+  </si>
+  <si>
+    <t>KPARI</t>
+  </si>
+  <si>
+    <t>KPÉWONKOU</t>
+  </si>
+  <si>
+    <t>MONRAWONKOUROU</t>
+  </si>
+  <si>
+    <t>NANNONROU</t>
+  </si>
+  <si>
+    <t>SONNA</t>
+  </si>
+  <si>
+    <t>SUI -GOUROU</t>
+  </si>
+  <si>
+    <t>TANDOU</t>
+  </si>
+  <si>
+    <t>TANGUÉ</t>
+  </si>
+  <si>
+    <t>TOUROU-SOUANRÉ</t>
+  </si>
+  <si>
+    <t>WARANKPÉROU</t>
+  </si>
+  <si>
+    <t>WINRA</t>
+  </si>
+  <si>
+    <t>YÈROUMAROU</t>
+  </si>
+  <si>
+    <t>AKPAKA</t>
+  </si>
+  <si>
+    <t>ISSALÈ</t>
+  </si>
+  <si>
+    <t>ITCHOCOBO</t>
+  </si>
+  <si>
+    <t>ADJÊDÈ</t>
+  </si>
+  <si>
+    <t>AKOUSSITÈ</t>
+  </si>
+  <si>
+    <t>ASSODÉ</t>
+  </si>
+  <si>
+    <t>KOMDÈ</t>
+  </si>
+  <si>
+    <t>MANKPASSI</t>
+  </si>
+  <si>
+    <t>WÈKÈTÈ</t>
+  </si>
+  <si>
+    <t>YAMSALÉ</t>
+  </si>
+  <si>
+    <t>AGONGNI</t>
+  </si>
+  <si>
+    <t>ALÉTAN</t>
+  </si>
+  <si>
+    <t>GOTCHA</t>
+  </si>
+  <si>
+    <t>KOTAKPA</t>
+  </si>
+  <si>
+    <t>IGBÈRÈ</t>
+  </si>
+  <si>
+    <t>MANIGRI OKÉ IGBOÉLÉ</t>
+  </si>
+  <si>
+    <t>MANIGRI-IKANNI</t>
+  </si>
+  <si>
+    <t>MANIGRI-OKÉ SOUANGBÉ</t>
+  </si>
+  <si>
+    <t>MODOGUI</t>
+  </si>
+  <si>
+    <t>TÈKÈ-TÉROU</t>
+  </si>
+  <si>
+    <t>WANNOU</t>
+  </si>
+  <si>
+    <t>ATCHAKPA</t>
+  </si>
+  <si>
+    <t>ATCHAKPA-KPINGNI</t>
+  </si>
+  <si>
+    <t>AYÉDJOKO</t>
+  </si>
+  <si>
+    <t>DANI</t>
+  </si>
+  <si>
+    <t>EÉTOU</t>
+  </si>
+  <si>
+    <t>ETIOFÈ</t>
+  </si>
+  <si>
+    <t>GOBÉ</t>
+  </si>
+  <si>
+    <t>AKON</t>
+  </si>
+  <si>
+    <t>GBÉRÉ</t>
+  </si>
+  <si>
+    <t>MONKA</t>
+  </si>
+  <si>
+    <t>OKÉ OWO</t>
+  </si>
+  <si>
+    <t>OKÉ OWO-AGA</t>
+  </si>
+  <si>
+    <t>SANDÉHOU</t>
+  </si>
+  <si>
+    <t>ALAYOMDÈ</t>
+  </si>
+  <si>
+    <t>ASSARADÈ</t>
+  </si>
+  <si>
+    <t>AWANLA</t>
+  </si>
+  <si>
+    <t>KANTÈ</t>
+  </si>
+  <si>
+    <t>KASSUA-ALLAH</t>
+  </si>
+  <si>
+    <t>KOUKOULOUNDA</t>
+  </si>
+  <si>
+    <t>KPÉLITÉ</t>
+  </si>
+  <si>
+    <t>KPÉLOUDÈ</t>
+  </si>
+  <si>
+    <t>SOBITÈ</t>
+  </si>
+  <si>
+    <t>SONAHOLOU</t>
+  </si>
+  <si>
+    <t>SONATÉ</t>
+  </si>
+  <si>
+    <t>TCHALADÈ</t>
+  </si>
+  <si>
+    <t>WAKITÈ</t>
+  </si>
+  <si>
+    <t>AWO</t>
+  </si>
+  <si>
+    <t>BAYAKOU</t>
+  </si>
+  <si>
+    <t>BODI</t>
+  </si>
+  <si>
+    <t>DINGOU</t>
+  </si>
+  <si>
+    <t>KODOWARI</t>
+  </si>
+  <si>
+    <t>MÊLAN</t>
+  </si>
+  <si>
+    <t>NAGAYILÉ</t>
+  </si>
+  <si>
+    <t>NIORO- KOLINA</t>
+  </si>
+  <si>
+    <t>OULI</t>
+  </si>
+  <si>
+    <t>PÉNÉLAN</t>
+  </si>
+  <si>
+    <t>PÉNESSOULOU</t>
+  </si>
+  <si>
+    <t>TABA</t>
+  </si>
+  <si>
+    <t>TCHÉTOU</t>
+  </si>
+  <si>
+    <t>WOLO</t>
+  </si>
+  <si>
+    <t>YARI</t>
+  </si>
+  <si>
+    <t>ADJIGO</t>
+  </si>
+  <si>
+    <t>AYIGBO-KOTO</t>
+  </si>
+  <si>
+    <t>DJÈRO</t>
+  </si>
+  <si>
+    <t>ELA-META</t>
+  </si>
+  <si>
+    <t>IDI-OGOU</t>
+  </si>
+  <si>
+    <t>OKÉ-KAGOURÈ</t>
+  </si>
+  <si>
+    <t>OKOUTA-OSSÉ</t>
+  </si>
+  <si>
+    <t>BOUBOUHOU</t>
+  </si>
+  <si>
+    <t>DAKPA</t>
+  </si>
+  <si>
+    <t>DÉPÔT CENTRE</t>
+  </si>
+  <si>
+    <t>FATCHODJONIN</t>
+  </si>
+  <si>
+    <t>KPABAÏ</t>
+  </si>
+  <si>
+    <t>SAVÈ-NOUVEAU</t>
+  </si>
+  <si>
+    <t>ZONGO</t>
+  </si>
+  <si>
+    <t>BANIGBÉ</t>
+  </si>
+  <si>
+    <t>DIHO-AGBONGUI</t>
+  </si>
+  <si>
+    <t>DIHO-OGBO</t>
+  </si>
+  <si>
+    <t>IWÉÉ</t>
+  </si>
+  <si>
+    <t>KADJOLA</t>
+  </si>
+  <si>
+    <t>OUOGHI-CENTRE</t>
+  </si>
+  <si>
+    <t>OUOGHI-GARE</t>
+  </si>
+  <si>
+    <t>OUOGHI-TITON</t>
+  </si>
+  <si>
+    <t>TCHINTCHIN</t>
+  </si>
+  <si>
+    <t>AMADOU-KPARA</t>
+  </si>
+  <si>
+    <t>BARÉROU</t>
+  </si>
+  <si>
+    <t>GBÉTÉBOU</t>
+  </si>
+  <si>
+    <t>GOMBOUÉROU</t>
+  </si>
+  <si>
+    <t>KAYA</t>
+  </si>
+  <si>
+    <t>KPASSATONA</t>
+  </si>
+  <si>
+    <t>SÉBOU</t>
+  </si>
+  <si>
+    <t>TÉOU-KPARA</t>
+  </si>
+  <si>
+    <t>TOKO- BIO</t>
+  </si>
+  <si>
+    <t>AGBANDARÈ</t>
+  </si>
+  <si>
+    <t>ATCHAKITAM</t>
+  </si>
+  <si>
+    <t>ATCHANKPA-KOLAH</t>
+  </si>
+  <si>
+    <t>BAPARAPÉÏ</t>
+  </si>
+  <si>
+    <t>DAKA</t>
+  </si>
+  <si>
+    <t>GNALO</t>
+  </si>
+  <si>
+    <t>KIM-KIM</t>
+  </si>
+  <si>
+    <t>KOUBLY</t>
+  </si>
+  <si>
+    <t>MAMI</t>
+  </si>
+  <si>
+    <t>OURAMARÉ</t>
+  </si>
+  <si>
+    <t>TCHINGUEYARÉ</t>
+  </si>
+  <si>
+    <t>ADÉDÉWO</t>
+  </si>
+  <si>
+    <t>AGUÉ-GARBA</t>
+  </si>
+  <si>
+    <t>AWOTOBI</t>
+  </si>
+  <si>
+    <t>GAO</t>
+  </si>
+  <si>
+    <t>GBAOU</t>
+  </si>
+  <si>
+    <t>GNANGBAKABIA</t>
+  </si>
+  <si>
+    <t>ITCHELLI</t>
+  </si>
+  <si>
+    <t>KAGNIFÊLÊ</t>
+  </si>
+  <si>
+    <t>KAKPÉSSIA</t>
+  </si>
+  <si>
+    <t>KPAKPALARÉ</t>
+  </si>
+  <si>
+    <t>KPÉLI-FADA</t>
+  </si>
+  <si>
+    <t>N’DJAKADA</t>
+  </si>
+  <si>
+    <t>TROUCARÉ-BAS</t>
+  </si>
+  <si>
+    <t>LANDA</t>
+  </si>
+  <si>
+    <t>MADJATOM</t>
+  </si>
+  <si>
+    <t>AKOUNDANMON</t>
+  </si>
+  <si>
+    <t>BORONIN</t>
+  </si>
+  <si>
+    <t>BORORI</t>
+  </si>
+  <si>
+    <t>DAGBARA-GOUROU</t>
+  </si>
+  <si>
+    <t>GAH-KPÉNOU</t>
+  </si>
+  <si>
+    <t>GANGO</t>
+  </si>
+  <si>
+    <t>GBÉYÈKÈROU</t>
+  </si>
+  <si>
+    <t>GUINIROU</t>
+  </si>
+  <si>
+    <t>KASSOUALA</t>
+  </si>
+  <si>
+    <t>KÈRA</t>
+  </si>
+  <si>
+    <t>KPAKPANIN</t>
+  </si>
+  <si>
+    <t>LAFIA-BIDO</t>
+  </si>
+  <si>
+    <t>OWODÉ</t>
+  </si>
+  <si>
+    <t>TCHALLA</t>
+  </si>
+  <si>
+    <t>TCHAOUROU-GOBI-ALÉDJI</t>
+  </si>
+  <si>
+    <t>TCHAOUROU-ISSALÈ</t>
+  </si>
+  <si>
+    <t>WOROGUI-GOURA</t>
+  </si>
+  <si>
+    <t>YAMBOUAN</t>
+  </si>
+  <si>
+    <t>ATIRA-KPAROU</t>
+  </si>
+  <si>
+    <t>BADÉKPAROU</t>
+  </si>
+  <si>
+    <t>BOUKOUSSÉRA</t>
+  </si>
+  <si>
+    <t>GARAROU</t>
+  </si>
+  <si>
+    <t>GBÉKPANIN</t>
+  </si>
+  <si>
+    <t>GOKANNA</t>
+  </si>
+  <si>
+    <t>GOUSSOUAMBOU</t>
+  </si>
+  <si>
+    <t>KINNOU-KPAROU</t>
+  </si>
+  <si>
+    <t>KONTOUBAROU</t>
+  </si>
+  <si>
+    <t>KOUBOU</t>
+  </si>
+  <si>
+    <t>SAKANA- KPÉBA</t>
+  </si>
+  <si>
+    <t>SOUMON-GAH</t>
+  </si>
+  <si>
+    <t>TÉKPAROU</t>
+  </si>
+  <si>
+    <t>TOUKOSSARI</t>
+  </si>
+  <si>
+    <t>WORIA</t>
+  </si>
+  <si>
+    <t>d_control_2</t>
+  </si>
+  <si>
+    <t>select_one region_list</t>
+  </si>
+  <si>
+    <t>Sélectionner un arrondissement</t>
+  </si>
+  <si>
+    <t>d_region</t>
+  </si>
+  <si>
+    <t>${d_region} = region_list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -501,16 +1462,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -527,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -536,25 +1497,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,6 +1523,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -852,19 +1816,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.5" customWidth="1"/>
     <col min="4" max="4" width="47.375" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
@@ -920,7 +1884,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>16</v>
@@ -930,10 +1894,10 @@
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -945,59 +1909,59 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>435</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>91</v>
+        <v>437</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>30</v>
+        <v>436</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="15"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="13"/>
       <c r="J4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="14" t="s">
-        <v>96</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="15"/>
@@ -1009,25 +1973,25 @@
         <v>28</v>
       </c>
       <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L5" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="15"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="13"/>
       <c r="J6" s="9" t="s">
         <v>28</v>
@@ -1037,142 +2001,286 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="9" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="I8" s="13"/>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="13"/>
       <c r="J9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="B16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="B18" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1182,11 +2290,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD11"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1207,51 +2315,51 @@
         <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>23</v>
@@ -1262,7 +2370,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>24</v>
@@ -1273,46 +2381,46 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1320,74 +2428,68 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1395,45 +2497,49 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>53</v>
@@ -1441,25 +2547,15 @@
       <c r="C20" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
@@ -1468,13 +2564,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1484,13 +2580,13 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1500,13 +2596,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1516,13 +2612,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1532,13 +2628,13 @@
         <v>19</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1548,574 +2644,4839 @@
         <v>19</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>67</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>39</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="E73" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>160</v>
+      </c>
+      <c r="E79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
+      <c r="E81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="E83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
+        <v>167</v>
+      </c>
+      <c r="E86" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" t="s">
+        <v>168</v>
+      </c>
+      <c r="E87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" t="s">
+        <v>172</v>
+      </c>
+      <c r="E91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" t="s">
+        <v>175</v>
+      </c>
+      <c r="E94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
+      </c>
+      <c r="E96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
+      </c>
+      <c r="E98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" t="s">
+        <v>180</v>
+      </c>
+      <c r="E99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" t="s">
+        <v>181</v>
+      </c>
+      <c r="E100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" t="s">
+        <v>182</v>
+      </c>
+      <c r="E101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" t="s">
+        <v>183</v>
+      </c>
+      <c r="C102" t="s">
+        <v>183</v>
+      </c>
+      <c r="E102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" t="s">
+        <v>184</v>
+      </c>
+      <c r="C103" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" t="s">
+        <v>185</v>
+      </c>
+      <c r="C104" t="s">
+        <v>185</v>
+      </c>
+      <c r="E104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" t="s">
+        <v>186</v>
+      </c>
+      <c r="C105" t="s">
+        <v>186</v>
+      </c>
+      <c r="E105" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" t="s">
+        <v>187</v>
+      </c>
+      <c r="E106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" t="s">
+        <v>188</v>
+      </c>
+      <c r="E107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" t="s">
+        <v>189</v>
+      </c>
+      <c r="C108" t="s">
+        <v>189</v>
+      </c>
+      <c r="E108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" t="s">
+        <v>190</v>
+      </c>
+      <c r="E109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" t="s">
+        <v>193</v>
+      </c>
+      <c r="C112" t="s">
+        <v>193</v>
+      </c>
+      <c r="E112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" t="s">
+        <v>54</v>
+      </c>
+      <c r="E113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" t="s">
+        <v>194</v>
+      </c>
+      <c r="E114" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" t="s">
+        <v>195</v>
+      </c>
+      <c r="C115" t="s">
+        <v>195</v>
+      </c>
+      <c r="E115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" t="s">
+        <v>197</v>
+      </c>
+      <c r="E117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" t="s">
+        <v>198</v>
+      </c>
+      <c r="E119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" t="s">
+        <v>200</v>
+      </c>
+      <c r="E121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" t="s">
+        <v>201</v>
+      </c>
+      <c r="E122" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" t="s">
+        <v>202</v>
+      </c>
+      <c r="E123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" t="s">
+        <v>203</v>
+      </c>
+      <c r="E124" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" t="s">
+        <v>204</v>
+      </c>
+      <c r="E125" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" t="s">
+        <v>205</v>
+      </c>
+      <c r="C126" t="s">
+        <v>205</v>
+      </c>
+      <c r="E126" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>39</v>
+      </c>
+      <c r="B127" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" t="s">
+        <v>206</v>
+      </c>
+      <c r="E127" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" t="s">
+        <v>207</v>
+      </c>
+      <c r="C128" t="s">
+        <v>207</v>
+      </c>
+      <c r="E128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>39</v>
+      </c>
+      <c r="B129" t="s">
+        <v>55</v>
+      </c>
+      <c r="C129" t="s">
+        <v>55</v>
+      </c>
+      <c r="E129" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" t="s">
+        <v>208</v>
+      </c>
+      <c r="E130" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s">
+        <v>209</v>
+      </c>
+      <c r="C131" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" t="s">
+        <v>210</v>
+      </c>
+      <c r="C132" t="s">
+        <v>210</v>
+      </c>
+      <c r="E132" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>39</v>
+      </c>
+      <c r="B133" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" t="s">
+        <v>211</v>
+      </c>
+      <c r="E133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" t="s">
+        <v>37</v>
+      </c>
+      <c r="C134" t="s">
+        <v>37</v>
+      </c>
+      <c r="E134" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" t="s">
+        <v>66</v>
+      </c>
+      <c r="C135" t="s">
+        <v>66</v>
+      </c>
+      <c r="E135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" t="s">
+        <v>212</v>
+      </c>
+      <c r="C136" t="s">
+        <v>212</v>
+      </c>
+      <c r="E136" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" t="s">
+        <v>213</v>
+      </c>
+      <c r="E138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" t="s">
+        <v>214</v>
+      </c>
+      <c r="C139" t="s">
+        <v>214</v>
+      </c>
+      <c r="E139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C140" t="s">
+        <v>215</v>
+      </c>
+      <c r="E140" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" t="s">
+        <v>216</v>
+      </c>
+      <c r="C141" t="s">
+        <v>216</v>
+      </c>
+      <c r="E141" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" t="s">
+        <v>217</v>
+      </c>
+      <c r="C142" t="s">
+        <v>217</v>
+      </c>
+      <c r="E142" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" t="s">
+        <v>218</v>
+      </c>
+      <c r="C143" t="s">
+        <v>218</v>
+      </c>
+      <c r="E143" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" t="s">
+        <v>219</v>
+      </c>
+      <c r="C144" t="s">
+        <v>219</v>
+      </c>
+      <c r="E144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" t="s">
+        <v>220</v>
+      </c>
+      <c r="C145" t="s">
+        <v>220</v>
+      </c>
+      <c r="E145" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146" t="s">
+        <v>221</v>
+      </c>
+      <c r="C146" t="s">
+        <v>221</v>
+      </c>
+      <c r="E146" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" t="s">
+        <v>222</v>
+      </c>
+      <c r="C147" t="s">
+        <v>222</v>
+      </c>
+      <c r="E147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>39</v>
+      </c>
+      <c r="B148" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" t="s">
+        <v>223</v>
+      </c>
+      <c r="E148" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" t="s">
+        <v>224</v>
+      </c>
+      <c r="C149" t="s">
+        <v>224</v>
+      </c>
+      <c r="E149" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" t="s">
+        <v>225</v>
+      </c>
+      <c r="C150" t="s">
+        <v>225</v>
+      </c>
+      <c r="E150" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" t="s">
+        <v>226</v>
+      </c>
+      <c r="C151" t="s">
+        <v>226</v>
+      </c>
+      <c r="E151" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" t="s">
+        <v>227</v>
+      </c>
+      <c r="C152" t="s">
+        <v>227</v>
+      </c>
+      <c r="E152" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" t="s">
+        <v>228</v>
+      </c>
+      <c r="C153" t="s">
+        <v>228</v>
+      </c>
+      <c r="E153" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" t="s">
+        <v>229</v>
+      </c>
+      <c r="C154" t="s">
+        <v>229</v>
+      </c>
+      <c r="E154" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>39</v>
+      </c>
+      <c r="B155" t="s">
+        <v>230</v>
+      </c>
+      <c r="C155" t="s">
+        <v>230</v>
+      </c>
+      <c r="E155" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" t="s">
+        <v>231</v>
+      </c>
+      <c r="C156" t="s">
+        <v>231</v>
+      </c>
+      <c r="E156" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" t="s">
+        <v>232</v>
+      </c>
+      <c r="C157" t="s">
+        <v>232</v>
+      </c>
+      <c r="E157" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>39</v>
+      </c>
+      <c r="B158" t="s">
+        <v>233</v>
+      </c>
+      <c r="C158" t="s">
+        <v>233</v>
+      </c>
+      <c r="E158" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" t="s">
+        <v>234</v>
+      </c>
+      <c r="C159" t="s">
+        <v>234</v>
+      </c>
+      <c r="E159" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" t="s">
+        <v>235</v>
+      </c>
+      <c r="C160" t="s">
+        <v>235</v>
+      </c>
+      <c r="E160" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" t="s">
+        <v>236</v>
+      </c>
+      <c r="C161" t="s">
+        <v>236</v>
+      </c>
+      <c r="E161" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>39</v>
+      </c>
+      <c r="B162" t="s">
+        <v>237</v>
+      </c>
+      <c r="C162" t="s">
+        <v>237</v>
+      </c>
+      <c r="E162" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B163" t="s">
+        <v>238</v>
+      </c>
+      <c r="C163" t="s">
+        <v>238</v>
+      </c>
+      <c r="E163" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" t="s">
+        <v>137</v>
+      </c>
+      <c r="C164" t="s">
+        <v>137</v>
+      </c>
+      <c r="E164" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" t="s">
+        <v>239</v>
+      </c>
+      <c r="C165" t="s">
+        <v>239</v>
+      </c>
+      <c r="E165" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>39</v>
+      </c>
+      <c r="B166" t="s">
+        <v>240</v>
+      </c>
+      <c r="C166" t="s">
+        <v>240</v>
+      </c>
+      <c r="E166" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167" t="s">
+        <v>241</v>
+      </c>
+      <c r="C167" t="s">
+        <v>241</v>
+      </c>
+      <c r="E167" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168" t="s">
+        <v>242</v>
+      </c>
+      <c r="C168" t="s">
+        <v>242</v>
+      </c>
+      <c r="E168" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>39</v>
+      </c>
+      <c r="B169" t="s">
+        <v>243</v>
+      </c>
+      <c r="C169" t="s">
+        <v>243</v>
+      </c>
+      <c r="E169" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>39</v>
+      </c>
+      <c r="B170" t="s">
+        <v>119</v>
+      </c>
+      <c r="C170" t="s">
+        <v>119</v>
+      </c>
+      <c r="E170" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>39</v>
+      </c>
+      <c r="B171" t="s">
+        <v>244</v>
+      </c>
+      <c r="C171" t="s">
+        <v>244</v>
+      </c>
+      <c r="E171" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>39</v>
+      </c>
+      <c r="B172" t="s">
+        <v>245</v>
+      </c>
+      <c r="C172" t="s">
+        <v>245</v>
+      </c>
+      <c r="E172" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>39</v>
+      </c>
+      <c r="B173" t="s">
+        <v>246</v>
+      </c>
+      <c r="C173" t="s">
+        <v>246</v>
+      </c>
+      <c r="E173" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>39</v>
+      </c>
+      <c r="B174" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" t="s">
+        <v>247</v>
+      </c>
+      <c r="E174" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" t="s">
+        <v>248</v>
+      </c>
+      <c r="C175" t="s">
+        <v>248</v>
+      </c>
+      <c r="E175" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>39</v>
+      </c>
+      <c r="B176" t="s">
+        <v>249</v>
+      </c>
+      <c r="C176" t="s">
+        <v>249</v>
+      </c>
+      <c r="E176" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>39</v>
+      </c>
+      <c r="B177" t="s">
+        <v>250</v>
+      </c>
+      <c r="C177" t="s">
+        <v>250</v>
+      </c>
+      <c r="E177" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>39</v>
+      </c>
+      <c r="B178" t="s">
+        <v>251</v>
+      </c>
+      <c r="C178" t="s">
+        <v>251</v>
+      </c>
+      <c r="E178" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1" t="s">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179" t="s">
+        <v>252</v>
+      </c>
+      <c r="C179" t="s">
+        <v>252</v>
+      </c>
+      <c r="E179" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>33</v>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" t="s">
+        <v>253</v>
+      </c>
+      <c r="C180" t="s">
+        <v>253</v>
+      </c>
+      <c r="E180" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181" t="s">
+        <v>254</v>
+      </c>
+      <c r="C181" t="s">
+        <v>254</v>
+      </c>
+      <c r="E181" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182" t="s">
+        <v>255</v>
+      </c>
+      <c r="C182" t="s">
+        <v>255</v>
+      </c>
+      <c r="E182" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B183" t="s">
+        <v>256</v>
+      </c>
+      <c r="C183" t="s">
+        <v>256</v>
+      </c>
+      <c r="E183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>39</v>
+      </c>
+      <c r="B184" t="s">
+        <v>257</v>
+      </c>
+      <c r="C184" t="s">
+        <v>257</v>
+      </c>
+      <c r="E184" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>39</v>
+      </c>
+      <c r="B185" t="s">
+        <v>258</v>
+      </c>
+      <c r="C185" t="s">
+        <v>258</v>
+      </c>
+      <c r="E185" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>39</v>
+      </c>
+      <c r="B186" t="s">
+        <v>259</v>
+      </c>
+      <c r="C186" t="s">
+        <v>259</v>
+      </c>
+      <c r="E186" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>39</v>
+      </c>
+      <c r="B187" t="s">
+        <v>260</v>
+      </c>
+      <c r="C187" t="s">
+        <v>260</v>
+      </c>
+      <c r="E187" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>39</v>
+      </c>
+      <c r="B188" t="s">
+        <v>261</v>
+      </c>
+      <c r="C188" t="s">
+        <v>261</v>
+      </c>
+      <c r="E188" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>39</v>
+      </c>
+      <c r="B189" t="s">
+        <v>262</v>
+      </c>
+      <c r="C189" t="s">
+        <v>262</v>
+      </c>
+      <c r="E189" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>39</v>
+      </c>
+      <c r="B190" t="s">
+        <v>263</v>
+      </c>
+      <c r="C190" t="s">
+        <v>263</v>
+      </c>
+      <c r="E190" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>39</v>
+      </c>
+      <c r="B191" t="s">
+        <v>264</v>
+      </c>
+      <c r="C191" t="s">
+        <v>264</v>
+      </c>
+      <c r="E191" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>39</v>
+      </c>
+      <c r="B192" t="s">
+        <v>265</v>
+      </c>
+      <c r="C192" t="s">
+        <v>265</v>
+      </c>
+      <c r="E192" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>39</v>
+      </c>
+      <c r="B193" t="s">
+        <v>266</v>
+      </c>
+      <c r="C193" t="s">
+        <v>266</v>
+      </c>
+      <c r="E193" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>39</v>
+      </c>
+      <c r="B194" t="s">
+        <v>63</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="E194" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>39</v>
+      </c>
+      <c r="B195" t="s">
+        <v>267</v>
+      </c>
+      <c r="C195" t="s">
+        <v>267</v>
+      </c>
+      <c r="E195" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>39</v>
+      </c>
+      <c r="B196" t="s">
+        <v>268</v>
+      </c>
+      <c r="C196" t="s">
+        <v>268</v>
+      </c>
+      <c r="E196" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>39</v>
+      </c>
+      <c r="B197" t="s">
+        <v>269</v>
+      </c>
+      <c r="C197" t="s">
+        <v>269</v>
+      </c>
+      <c r="E197" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>39</v>
+      </c>
+      <c r="B198" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" t="s">
+        <v>56</v>
+      </c>
+      <c r="E198" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>39</v>
+      </c>
+      <c r="B199" t="s">
+        <v>270</v>
+      </c>
+      <c r="C199" t="s">
+        <v>270</v>
+      </c>
+      <c r="E199" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>39</v>
+      </c>
+      <c r="B200" t="s">
+        <v>271</v>
+      </c>
+      <c r="C200" t="s">
+        <v>271</v>
+      </c>
+      <c r="E200" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>39</v>
+      </c>
+      <c r="B201" t="s">
+        <v>272</v>
+      </c>
+      <c r="C201" t="s">
+        <v>272</v>
+      </c>
+      <c r="E201" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>39</v>
+      </c>
+      <c r="B202" t="s">
+        <v>273</v>
+      </c>
+      <c r="C202" t="s">
+        <v>273</v>
+      </c>
+      <c r="E202" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>39</v>
+      </c>
+      <c r="B203" t="s">
+        <v>274</v>
+      </c>
+      <c r="C203" t="s">
+        <v>274</v>
+      </c>
+      <c r="E203" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>39</v>
+      </c>
+      <c r="B204" t="s">
+        <v>275</v>
+      </c>
+      <c r="C204" t="s">
+        <v>275</v>
+      </c>
+      <c r="E204" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>39</v>
+      </c>
+      <c r="B205" t="s">
+        <v>276</v>
+      </c>
+      <c r="C205" t="s">
+        <v>276</v>
+      </c>
+      <c r="E205" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>39</v>
+      </c>
+      <c r="B206" t="s">
+        <v>277</v>
+      </c>
+      <c r="C206" t="s">
+        <v>277</v>
+      </c>
+      <c r="E206" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>39</v>
+      </c>
+      <c r="B207" t="s">
+        <v>278</v>
+      </c>
+      <c r="C207" t="s">
+        <v>278</v>
+      </c>
+      <c r="E207" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208" t="s">
+        <v>279</v>
+      </c>
+      <c r="C208" t="s">
+        <v>279</v>
+      </c>
+      <c r="E208" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209" t="s">
+        <v>280</v>
+      </c>
+      <c r="C209" t="s">
+        <v>280</v>
+      </c>
+      <c r="E209" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>39</v>
+      </c>
+      <c r="B210" t="s">
+        <v>281</v>
+      </c>
+      <c r="C210" t="s">
+        <v>281</v>
+      </c>
+      <c r="E210" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>39</v>
+      </c>
+      <c r="B211" t="s">
+        <v>282</v>
+      </c>
+      <c r="C211" t="s">
+        <v>282</v>
+      </c>
+      <c r="E211" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>39</v>
+      </c>
+      <c r="B212" t="s">
+        <v>283</v>
+      </c>
+      <c r="C212" t="s">
+        <v>283</v>
+      </c>
+      <c r="E212" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>39</v>
+      </c>
+      <c r="B213" t="s">
+        <v>284</v>
+      </c>
+      <c r="C213" t="s">
+        <v>284</v>
+      </c>
+      <c r="E213" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>39</v>
+      </c>
+      <c r="B214" t="s">
+        <v>285</v>
+      </c>
+      <c r="C214" t="s">
+        <v>285</v>
+      </c>
+      <c r="E214" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>39</v>
+      </c>
+      <c r="B215" t="s">
+        <v>286</v>
+      </c>
+      <c r="C215" t="s">
+        <v>286</v>
+      </c>
+      <c r="E215" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>39</v>
+      </c>
+      <c r="B216" t="s">
+        <v>287</v>
+      </c>
+      <c r="C216" t="s">
+        <v>287</v>
+      </c>
+      <c r="E216" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>39</v>
+      </c>
+      <c r="B217" t="s">
+        <v>288</v>
+      </c>
+      <c r="C217" t="s">
+        <v>288</v>
+      </c>
+      <c r="E217" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>39</v>
+      </c>
+      <c r="B218" t="s">
+        <v>289</v>
+      </c>
+      <c r="C218" t="s">
+        <v>289</v>
+      </c>
+      <c r="E218" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>39</v>
+      </c>
+      <c r="B219" t="s">
+        <v>290</v>
+      </c>
+      <c r="C219" t="s">
+        <v>290</v>
+      </c>
+      <c r="E219" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>39</v>
+      </c>
+      <c r="B220" t="s">
+        <v>291</v>
+      </c>
+      <c r="C220" t="s">
+        <v>291</v>
+      </c>
+      <c r="E220" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>39</v>
+      </c>
+      <c r="B221" t="s">
+        <v>292</v>
+      </c>
+      <c r="C221" t="s">
+        <v>292</v>
+      </c>
+      <c r="E221" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>39</v>
+      </c>
+      <c r="B222" t="s">
+        <v>293</v>
+      </c>
+      <c r="C222" t="s">
+        <v>293</v>
+      </c>
+      <c r="E222" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>39</v>
+      </c>
+      <c r="B223" t="s">
+        <v>294</v>
+      </c>
+      <c r="C223" t="s">
+        <v>294</v>
+      </c>
+      <c r="E223" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>39</v>
+      </c>
+      <c r="B224" t="s">
+        <v>295</v>
+      </c>
+      <c r="C224" t="s">
+        <v>295</v>
+      </c>
+      <c r="E224" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>39</v>
+      </c>
+      <c r="B225" t="s">
+        <v>296</v>
+      </c>
+      <c r="C225" t="s">
+        <v>296</v>
+      </c>
+      <c r="E225" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>39</v>
+      </c>
+      <c r="B226" t="s">
+        <v>297</v>
+      </c>
+      <c r="C226" t="s">
+        <v>297</v>
+      </c>
+      <c r="E226" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>39</v>
+      </c>
+      <c r="B227" t="s">
+        <v>298</v>
+      </c>
+      <c r="C227" t="s">
+        <v>298</v>
+      </c>
+      <c r="E227" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>39</v>
+      </c>
+      <c r="B228" t="s">
+        <v>299</v>
+      </c>
+      <c r="C228" t="s">
+        <v>299</v>
+      </c>
+      <c r="E228" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>39</v>
+      </c>
+      <c r="B229" t="s">
+        <v>300</v>
+      </c>
+      <c r="C229" t="s">
+        <v>300</v>
+      </c>
+      <c r="E229" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>39</v>
+      </c>
+      <c r="B230" t="s">
+        <v>301</v>
+      </c>
+      <c r="C230" t="s">
+        <v>301</v>
+      </c>
+      <c r="E230" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>39</v>
+      </c>
+      <c r="B231" t="s">
+        <v>302</v>
+      </c>
+      <c r="C231" t="s">
+        <v>302</v>
+      </c>
+      <c r="E231" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>39</v>
+      </c>
+      <c r="B232" t="s">
+        <v>303</v>
+      </c>
+      <c r="C232" t="s">
+        <v>303</v>
+      </c>
+      <c r="E232" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>39</v>
+      </c>
+      <c r="B233" t="s">
+        <v>304</v>
+      </c>
+      <c r="C233" t="s">
+        <v>304</v>
+      </c>
+      <c r="E233" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>39</v>
+      </c>
+      <c r="B234" t="s">
+        <v>305</v>
+      </c>
+      <c r="C234" t="s">
+        <v>305</v>
+      </c>
+      <c r="E234" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>39</v>
+      </c>
+      <c r="B235" t="s">
+        <v>306</v>
+      </c>
+      <c r="C235" t="s">
+        <v>306</v>
+      </c>
+      <c r="E235" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>39</v>
+      </c>
+      <c r="B236" t="s">
+        <v>307</v>
+      </c>
+      <c r="C236" t="s">
+        <v>307</v>
+      </c>
+      <c r="E236" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>39</v>
+      </c>
+      <c r="B237" t="s">
+        <v>308</v>
+      </c>
+      <c r="C237" t="s">
+        <v>308</v>
+      </c>
+      <c r="E237" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>39</v>
+      </c>
+      <c r="B238" t="s">
+        <v>309</v>
+      </c>
+      <c r="C238" t="s">
+        <v>309</v>
+      </c>
+      <c r="E238" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>39</v>
+      </c>
+      <c r="B239" t="s">
+        <v>310</v>
+      </c>
+      <c r="C239" t="s">
+        <v>310</v>
+      </c>
+      <c r="E239" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>39</v>
+      </c>
+      <c r="B240" t="s">
+        <v>311</v>
+      </c>
+      <c r="C240" t="s">
+        <v>311</v>
+      </c>
+      <c r="E240" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>39</v>
+      </c>
+      <c r="B241" t="s">
+        <v>312</v>
+      </c>
+      <c r="C241" t="s">
+        <v>312</v>
+      </c>
+      <c r="E241" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>39</v>
+      </c>
+      <c r="B242" t="s">
+        <v>313</v>
+      </c>
+      <c r="C242" t="s">
+        <v>313</v>
+      </c>
+      <c r="E242" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>39</v>
+      </c>
+      <c r="B243" t="s">
+        <v>314</v>
+      </c>
+      <c r="C243" t="s">
+        <v>314</v>
+      </c>
+      <c r="E243" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>39</v>
+      </c>
+      <c r="B244" t="s">
+        <v>315</v>
+      </c>
+      <c r="C244" t="s">
+        <v>315</v>
+      </c>
+      <c r="E244" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>39</v>
+      </c>
+      <c r="B245" t="s">
+        <v>316</v>
+      </c>
+      <c r="C245" t="s">
+        <v>316</v>
+      </c>
+      <c r="E245" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>39</v>
+      </c>
+      <c r="B246" t="s">
+        <v>317</v>
+      </c>
+      <c r="C246" t="s">
+        <v>317</v>
+      </c>
+      <c r="E246" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>39</v>
+      </c>
+      <c r="B247" t="s">
+        <v>318</v>
+      </c>
+      <c r="C247" t="s">
+        <v>318</v>
+      </c>
+      <c r="E247" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>39</v>
+      </c>
+      <c r="B248" t="s">
+        <v>319</v>
+      </c>
+      <c r="C248" t="s">
+        <v>319</v>
+      </c>
+      <c r="E248" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>39</v>
+      </c>
+      <c r="B249" t="s">
+        <v>320</v>
+      </c>
+      <c r="C249" t="s">
+        <v>320</v>
+      </c>
+      <c r="E249" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>39</v>
+      </c>
+      <c r="B250" t="s">
+        <v>321</v>
+      </c>
+      <c r="C250" t="s">
+        <v>321</v>
+      </c>
+      <c r="E250" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>39</v>
+      </c>
+      <c r="B251" t="s">
+        <v>322</v>
+      </c>
+      <c r="C251" t="s">
+        <v>322</v>
+      </c>
+      <c r="E251" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>39</v>
+      </c>
+      <c r="B252" t="s">
+        <v>323</v>
+      </c>
+      <c r="C252" t="s">
+        <v>323</v>
+      </c>
+      <c r="E252" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>39</v>
+      </c>
+      <c r="B253" t="s">
+        <v>324</v>
+      </c>
+      <c r="C253" t="s">
+        <v>324</v>
+      </c>
+      <c r="E253" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>39</v>
+      </c>
+      <c r="B254" t="s">
+        <v>325</v>
+      </c>
+      <c r="C254" t="s">
+        <v>325</v>
+      </c>
+      <c r="E254" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>39</v>
+      </c>
+      <c r="B255" t="s">
+        <v>326</v>
+      </c>
+      <c r="C255" t="s">
+        <v>326</v>
+      </c>
+      <c r="E255" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>39</v>
+      </c>
+      <c r="B256" t="s">
+        <v>327</v>
+      </c>
+      <c r="C256" t="s">
+        <v>327</v>
+      </c>
+      <c r="E256" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>39</v>
+      </c>
+      <c r="B257" t="s">
+        <v>328</v>
+      </c>
+      <c r="C257" t="s">
+        <v>328</v>
+      </c>
+      <c r="E257" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>39</v>
+      </c>
+      <c r="B258" t="s">
+        <v>329</v>
+      </c>
+      <c r="C258" t="s">
+        <v>329</v>
+      </c>
+      <c r="E258" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>39</v>
+      </c>
+      <c r="B259" t="s">
+        <v>330</v>
+      </c>
+      <c r="C259" t="s">
+        <v>330</v>
+      </c>
+      <c r="E259" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>39</v>
+      </c>
+      <c r="B260" t="s">
+        <v>331</v>
+      </c>
+      <c r="C260" t="s">
+        <v>331</v>
+      </c>
+      <c r="E260" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>39</v>
+      </c>
+      <c r="B261" t="s">
+        <v>332</v>
+      </c>
+      <c r="C261" t="s">
+        <v>332</v>
+      </c>
+      <c r="E261" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>39</v>
+      </c>
+      <c r="B262" t="s">
+        <v>333</v>
+      </c>
+      <c r="C262" t="s">
+        <v>333</v>
+      </c>
+      <c r="E262" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>39</v>
+      </c>
+      <c r="B263" t="s">
+        <v>334</v>
+      </c>
+      <c r="C263" t="s">
+        <v>334</v>
+      </c>
+      <c r="E263" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>39</v>
+      </c>
+      <c r="B264" t="s">
+        <v>335</v>
+      </c>
+      <c r="C264" t="s">
+        <v>335</v>
+      </c>
+      <c r="E264" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>39</v>
+      </c>
+      <c r="B265" t="s">
+        <v>336</v>
+      </c>
+      <c r="C265" t="s">
+        <v>336</v>
+      </c>
+      <c r="E265" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>39</v>
+      </c>
+      <c r="B266" t="s">
+        <v>337</v>
+      </c>
+      <c r="C266" t="s">
+        <v>337</v>
+      </c>
+      <c r="E266" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>39</v>
+      </c>
+      <c r="B267" t="s">
+        <v>338</v>
+      </c>
+      <c r="C267" t="s">
+        <v>338</v>
+      </c>
+      <c r="E267" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>39</v>
+      </c>
+      <c r="B268" t="s">
+        <v>65</v>
+      </c>
+      <c r="C268" t="s">
+        <v>65</v>
+      </c>
+      <c r="E268" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>39</v>
+      </c>
+      <c r="B269" t="s">
+        <v>339</v>
+      </c>
+      <c r="C269" t="s">
+        <v>339</v>
+      </c>
+      <c r="E269" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>39</v>
+      </c>
+      <c r="B270" t="s">
+        <v>340</v>
+      </c>
+      <c r="C270" t="s">
+        <v>340</v>
+      </c>
+      <c r="E270" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>39</v>
+      </c>
+      <c r="B271" t="s">
+        <v>341</v>
+      </c>
+      <c r="C271" t="s">
+        <v>341</v>
+      </c>
+      <c r="E271" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>39</v>
+      </c>
+      <c r="B272" t="s">
+        <v>342</v>
+      </c>
+      <c r="C272" t="s">
+        <v>342</v>
+      </c>
+      <c r="E272" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>39</v>
+      </c>
+      <c r="B273" t="s">
+        <v>343</v>
+      </c>
+      <c r="C273" t="s">
+        <v>343</v>
+      </c>
+      <c r="E273" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>39</v>
+      </c>
+      <c r="B274" t="s">
+        <v>344</v>
+      </c>
+      <c r="C274" t="s">
+        <v>344</v>
+      </c>
+      <c r="E274" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>39</v>
+      </c>
+      <c r="B275" t="s">
+        <v>345</v>
+      </c>
+      <c r="C275" t="s">
+        <v>345</v>
+      </c>
+      <c r="E275" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>39</v>
+      </c>
+      <c r="B276" t="s">
+        <v>346</v>
+      </c>
+      <c r="C276" t="s">
+        <v>346</v>
+      </c>
+      <c r="E276" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>39</v>
+      </c>
+      <c r="B277" t="s">
+        <v>347</v>
+      </c>
+      <c r="C277" t="s">
+        <v>347</v>
+      </c>
+      <c r="E277" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>39</v>
+      </c>
+      <c r="B278" t="s">
+        <v>348</v>
+      </c>
+      <c r="C278" t="s">
+        <v>348</v>
+      </c>
+      <c r="E278" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>39</v>
+      </c>
+      <c r="B279" t="s">
+        <v>349</v>
+      </c>
+      <c r="C279" t="s">
+        <v>349</v>
+      </c>
+      <c r="E279" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>39</v>
+      </c>
+      <c r="B280" t="s">
+        <v>350</v>
+      </c>
+      <c r="C280" t="s">
+        <v>350</v>
+      </c>
+      <c r="E280" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>39</v>
+      </c>
+      <c r="B281" t="s">
+        <v>351</v>
+      </c>
+      <c r="C281" t="s">
+        <v>351</v>
+      </c>
+      <c r="E281" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>39</v>
+      </c>
+      <c r="B282" t="s">
+        <v>352</v>
+      </c>
+      <c r="C282" t="s">
+        <v>352</v>
+      </c>
+      <c r="E282" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>39</v>
+      </c>
+      <c r="B283" t="s">
+        <v>353</v>
+      </c>
+      <c r="C283" t="s">
+        <v>353</v>
+      </c>
+      <c r="E283" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>39</v>
+      </c>
+      <c r="B284" t="s">
+        <v>354</v>
+      </c>
+      <c r="C284" t="s">
+        <v>354</v>
+      </c>
+      <c r="E284" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>39</v>
+      </c>
+      <c r="B285" t="s">
+        <v>355</v>
+      </c>
+      <c r="C285" t="s">
+        <v>355</v>
+      </c>
+      <c r="E285" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>39</v>
+      </c>
+      <c r="B286" t="s">
+        <v>356</v>
+      </c>
+      <c r="C286" t="s">
+        <v>356</v>
+      </c>
+      <c r="E286" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>39</v>
+      </c>
+      <c r="B287" t="s">
+        <v>357</v>
+      </c>
+      <c r="C287" t="s">
+        <v>357</v>
+      </c>
+      <c r="E287" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>39</v>
+      </c>
+      <c r="B288" t="s">
+        <v>358</v>
+      </c>
+      <c r="C288" t="s">
+        <v>358</v>
+      </c>
+      <c r="E288" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>39</v>
+      </c>
+      <c r="B289" t="s">
+        <v>359</v>
+      </c>
+      <c r="C289" t="s">
+        <v>359</v>
+      </c>
+      <c r="E289" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>39</v>
+      </c>
+      <c r="B290" t="s">
+        <v>360</v>
+      </c>
+      <c r="C290" t="s">
+        <v>360</v>
+      </c>
+      <c r="E290" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>39</v>
+      </c>
+      <c r="B291" t="s">
+        <v>361</v>
+      </c>
+      <c r="C291" t="s">
+        <v>361</v>
+      </c>
+      <c r="E291" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>39</v>
+      </c>
+      <c r="B292" t="s">
+        <v>362</v>
+      </c>
+      <c r="C292" t="s">
+        <v>362</v>
+      </c>
+      <c r="E292" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>39</v>
+      </c>
+      <c r="B293" t="s">
+        <v>363</v>
+      </c>
+      <c r="C293" t="s">
+        <v>363</v>
+      </c>
+      <c r="E293" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>39</v>
+      </c>
+      <c r="B294" t="s">
+        <v>364</v>
+      </c>
+      <c r="C294" t="s">
+        <v>364</v>
+      </c>
+      <c r="E294" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>39</v>
+      </c>
+      <c r="B295" t="s">
+        <v>365</v>
+      </c>
+      <c r="C295" t="s">
+        <v>365</v>
+      </c>
+      <c r="E295" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>39</v>
+      </c>
+      <c r="B296" t="s">
+        <v>366</v>
+      </c>
+      <c r="C296" t="s">
+        <v>366</v>
+      </c>
+      <c r="E296" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>39</v>
+      </c>
+      <c r="B297" t="s">
+        <v>367</v>
+      </c>
+      <c r="C297" t="s">
+        <v>367</v>
+      </c>
+      <c r="E297" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>39</v>
+      </c>
+      <c r="B298" t="s">
+        <v>368</v>
+      </c>
+      <c r="C298" t="s">
+        <v>368</v>
+      </c>
+      <c r="E298" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>39</v>
+      </c>
+      <c r="B299" t="s">
+        <v>369</v>
+      </c>
+      <c r="C299" t="s">
+        <v>369</v>
+      </c>
+      <c r="E299" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>39</v>
+      </c>
+      <c r="B300" t="s">
+        <v>370</v>
+      </c>
+      <c r="C300" t="s">
+        <v>370</v>
+      </c>
+      <c r="E300" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>39</v>
+      </c>
+      <c r="B301" t="s">
+        <v>371</v>
+      </c>
+      <c r="C301" t="s">
+        <v>371</v>
+      </c>
+      <c r="E301" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>39</v>
+      </c>
+      <c r="B302" t="s">
+        <v>138</v>
+      </c>
+      <c r="C302" t="s">
+        <v>138</v>
+      </c>
+      <c r="E302" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>39</v>
+      </c>
+      <c r="B303" t="s">
+        <v>372</v>
+      </c>
+      <c r="C303" t="s">
+        <v>372</v>
+      </c>
+      <c r="E303" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>39</v>
+      </c>
+      <c r="B304" t="s">
+        <v>373</v>
+      </c>
+      <c r="C304" t="s">
+        <v>373</v>
+      </c>
+      <c r="E304" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>39</v>
+      </c>
+      <c r="B305" t="s">
+        <v>374</v>
+      </c>
+      <c r="C305" t="s">
+        <v>374</v>
+      </c>
+      <c r="E305" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>39</v>
+      </c>
+      <c r="B306" t="s">
+        <v>375</v>
+      </c>
+      <c r="C306" t="s">
+        <v>375</v>
+      </c>
+      <c r="E306" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>39</v>
+      </c>
+      <c r="B307" t="s">
+        <v>376</v>
+      </c>
+      <c r="C307" t="s">
+        <v>376</v>
+      </c>
+      <c r="E307" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>39</v>
+      </c>
+      <c r="B308" t="s">
+        <v>377</v>
+      </c>
+      <c r="C308" t="s">
+        <v>377</v>
+      </c>
+      <c r="E308" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>39</v>
+      </c>
+      <c r="B309" t="s">
+        <v>378</v>
+      </c>
+      <c r="C309" t="s">
+        <v>378</v>
+      </c>
+      <c r="E309" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>39</v>
+      </c>
+      <c r="B310" t="s">
+        <v>379</v>
+      </c>
+      <c r="C310" t="s">
+        <v>379</v>
+      </c>
+      <c r="E310" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>39</v>
+      </c>
+      <c r="B311" t="s">
+        <v>380</v>
+      </c>
+      <c r="C311" t="s">
+        <v>380</v>
+      </c>
+      <c r="E311" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>39</v>
+      </c>
+      <c r="B312" t="s">
+        <v>381</v>
+      </c>
+      <c r="C312" t="s">
+        <v>381</v>
+      </c>
+      <c r="E312" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>39</v>
+      </c>
+      <c r="B313" t="s">
+        <v>382</v>
+      </c>
+      <c r="C313" t="s">
+        <v>382</v>
+      </c>
+      <c r="E313" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>39</v>
+      </c>
+      <c r="B314" t="s">
+        <v>383</v>
+      </c>
+      <c r="C314" t="s">
+        <v>383</v>
+      </c>
+      <c r="E314" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>39</v>
+      </c>
+      <c r="B315" t="s">
+        <v>384</v>
+      </c>
+      <c r="C315" t="s">
+        <v>384</v>
+      </c>
+      <c r="E315" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>39</v>
+      </c>
+      <c r="B316" t="s">
+        <v>385</v>
+      </c>
+      <c r="C316" t="s">
+        <v>385</v>
+      </c>
+      <c r="E316" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>39</v>
+      </c>
+      <c r="B317" t="s">
+        <v>386</v>
+      </c>
+      <c r="C317" t="s">
+        <v>386</v>
+      </c>
+      <c r="E317" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>39</v>
+      </c>
+      <c r="B318" t="s">
+        <v>387</v>
+      </c>
+      <c r="C318" t="s">
+        <v>387</v>
+      </c>
+      <c r="E318" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>39</v>
+      </c>
+      <c r="B319" t="s">
+        <v>388</v>
+      </c>
+      <c r="C319" t="s">
+        <v>388</v>
+      </c>
+      <c r="E319" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>39</v>
+      </c>
+      <c r="B320" t="s">
+        <v>389</v>
+      </c>
+      <c r="C320" t="s">
+        <v>389</v>
+      </c>
+      <c r="E320" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>39</v>
+      </c>
+      <c r="B321" t="s">
+        <v>390</v>
+      </c>
+      <c r="C321" t="s">
+        <v>390</v>
+      </c>
+      <c r="E321" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>39</v>
+      </c>
+      <c r="B322" t="s">
+        <v>391</v>
+      </c>
+      <c r="C322" t="s">
+        <v>391</v>
+      </c>
+      <c r="E322" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>39</v>
+      </c>
+      <c r="B323" t="s">
+        <v>392</v>
+      </c>
+      <c r="C323" t="s">
+        <v>392</v>
+      </c>
+      <c r="E323" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>39</v>
+      </c>
+      <c r="B324" t="s">
+        <v>393</v>
+      </c>
+      <c r="C324" t="s">
+        <v>393</v>
+      </c>
+      <c r="E324" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>39</v>
+      </c>
+      <c r="B325" t="s">
+        <v>394</v>
+      </c>
+      <c r="C325" t="s">
+        <v>394</v>
+      </c>
+      <c r="E325" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>39</v>
+      </c>
+      <c r="B326" t="s">
+        <v>395</v>
+      </c>
+      <c r="C326" t="s">
+        <v>395</v>
+      </c>
+      <c r="E326" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>39</v>
+      </c>
+      <c r="B327" t="s">
+        <v>396</v>
+      </c>
+      <c r="C327" t="s">
+        <v>396</v>
+      </c>
+      <c r="E327" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>39</v>
+      </c>
+      <c r="B328" t="s">
+        <v>397</v>
+      </c>
+      <c r="C328" t="s">
+        <v>397</v>
+      </c>
+      <c r="E328" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>39</v>
+      </c>
+      <c r="B329" t="s">
+        <v>398</v>
+      </c>
+      <c r="C329" t="s">
+        <v>398</v>
+      </c>
+      <c r="E329" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>39</v>
+      </c>
+      <c r="B330" t="s">
+        <v>67</v>
+      </c>
+      <c r="C330" t="s">
+        <v>67</v>
+      </c>
+      <c r="E330" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>39</v>
+      </c>
+      <c r="B331" t="s">
+        <v>399</v>
+      </c>
+      <c r="C331" t="s">
+        <v>399</v>
+      </c>
+      <c r="E331" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>39</v>
+      </c>
+      <c r="B332" t="s">
+        <v>400</v>
+      </c>
+      <c r="C332" t="s">
+        <v>400</v>
+      </c>
+      <c r="E332" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>39</v>
+      </c>
+      <c r="B333" t="s">
+        <v>129</v>
+      </c>
+      <c r="C333" t="s">
+        <v>129</v>
+      </c>
+      <c r="E333" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>39</v>
+      </c>
+      <c r="B334" t="s">
+        <v>401</v>
+      </c>
+      <c r="C334" t="s">
+        <v>401</v>
+      </c>
+      <c r="E334" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>39</v>
+      </c>
+      <c r="B335" t="s">
+        <v>402</v>
+      </c>
+      <c r="C335" t="s">
+        <v>402</v>
+      </c>
+      <c r="E335" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>39</v>
+      </c>
+      <c r="B336" t="s">
+        <v>403</v>
+      </c>
+      <c r="C336" t="s">
+        <v>403</v>
+      </c>
+      <c r="E336" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>39</v>
+      </c>
+      <c r="B337" t="s">
+        <v>404</v>
+      </c>
+      <c r="C337" t="s">
+        <v>404</v>
+      </c>
+      <c r="E337" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>39</v>
+      </c>
+      <c r="B338" t="s">
+        <v>405</v>
+      </c>
+      <c r="C338" t="s">
+        <v>405</v>
+      </c>
+      <c r="E338" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>39</v>
+      </c>
+      <c r="B339" t="s">
+        <v>406</v>
+      </c>
+      <c r="C339" t="s">
+        <v>406</v>
+      </c>
+      <c r="E339" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>39</v>
+      </c>
+      <c r="B340" t="s">
+        <v>407</v>
+      </c>
+      <c r="C340" t="s">
+        <v>407</v>
+      </c>
+      <c r="E340" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>39</v>
+      </c>
+      <c r="B341" t="s">
+        <v>408</v>
+      </c>
+      <c r="C341" t="s">
+        <v>408</v>
+      </c>
+      <c r="E341" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>39</v>
+      </c>
+      <c r="B342" t="s">
+        <v>409</v>
+      </c>
+      <c r="C342" t="s">
+        <v>409</v>
+      </c>
+      <c r="E342" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>39</v>
+      </c>
+      <c r="B343" t="s">
+        <v>410</v>
+      </c>
+      <c r="C343" t="s">
+        <v>410</v>
+      </c>
+      <c r="E343" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>39</v>
+      </c>
+      <c r="B344" t="s">
+        <v>411</v>
+      </c>
+      <c r="C344" t="s">
+        <v>411</v>
+      </c>
+      <c r="E344" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>39</v>
+      </c>
+      <c r="B345" t="s">
+        <v>412</v>
+      </c>
+      <c r="C345" t="s">
+        <v>412</v>
+      </c>
+      <c r="E345" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>39</v>
+      </c>
+      <c r="B346" t="s">
+        <v>413</v>
+      </c>
+      <c r="C346" t="s">
+        <v>413</v>
+      </c>
+      <c r="E346" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>39</v>
+      </c>
+      <c r="B347" t="s">
+        <v>414</v>
+      </c>
+      <c r="C347" t="s">
+        <v>414</v>
+      </c>
+      <c r="E347" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>39</v>
+      </c>
+      <c r="B348" t="s">
+        <v>53</v>
+      </c>
+      <c r="C348" t="s">
+        <v>53</v>
+      </c>
+      <c r="E348" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>39</v>
+      </c>
+      <c r="B349" t="s">
+        <v>415</v>
+      </c>
+      <c r="C349" t="s">
+        <v>415</v>
+      </c>
+      <c r="E349" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>39</v>
+      </c>
+      <c r="B350" t="s">
+        <v>416</v>
+      </c>
+      <c r="C350" t="s">
+        <v>416</v>
+      </c>
+      <c r="E350" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>39</v>
+      </c>
+      <c r="B351" t="s">
+        <v>417</v>
+      </c>
+      <c r="C351" t="s">
+        <v>417</v>
+      </c>
+      <c r="E351" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>39</v>
+      </c>
+      <c r="B352" t="s">
+        <v>418</v>
+      </c>
+      <c r="C352" t="s">
+        <v>418</v>
+      </c>
+      <c r="E352" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>39</v>
+      </c>
+      <c r="B353" t="s">
+        <v>419</v>
+      </c>
+      <c r="C353" t="s">
+        <v>419</v>
+      </c>
+      <c r="E353" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>39</v>
+      </c>
+      <c r="B354" t="s">
+        <v>420</v>
+      </c>
+      <c r="C354" t="s">
+        <v>420</v>
+      </c>
+      <c r="E354" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>39</v>
+      </c>
+      <c r="B355" t="s">
+        <v>421</v>
+      </c>
+      <c r="C355" t="s">
+        <v>421</v>
+      </c>
+      <c r="E355" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>39</v>
+      </c>
+      <c r="B356" t="s">
+        <v>422</v>
+      </c>
+      <c r="C356" t="s">
+        <v>422</v>
+      </c>
+      <c r="E356" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>39</v>
+      </c>
+      <c r="B357" t="s">
+        <v>423</v>
+      </c>
+      <c r="C357" t="s">
+        <v>423</v>
+      </c>
+      <c r="E357" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>39</v>
+      </c>
+      <c r="B358" t="s">
+        <v>424</v>
+      </c>
+      <c r="C358" t="s">
+        <v>424</v>
+      </c>
+      <c r="E358" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>39</v>
+      </c>
+      <c r="B359" t="s">
+        <v>425</v>
+      </c>
+      <c r="C359" t="s">
+        <v>425</v>
+      </c>
+      <c r="E359" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>39</v>
+      </c>
+      <c r="B360" t="s">
+        <v>426</v>
+      </c>
+      <c r="C360" t="s">
+        <v>426</v>
+      </c>
+      <c r="E360" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>39</v>
+      </c>
+      <c r="B361" t="s">
+        <v>427</v>
+      </c>
+      <c r="C361" t="s">
+        <v>427</v>
+      </c>
+      <c r="E361" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>39</v>
+      </c>
+      <c r="B362" t="s">
+        <v>428</v>
+      </c>
+      <c r="C362" t="s">
+        <v>428</v>
+      </c>
+      <c r="E362" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>39</v>
+      </c>
+      <c r="B363" t="s">
+        <v>429</v>
+      </c>
+      <c r="C363" t="s">
+        <v>429</v>
+      </c>
+      <c r="E363" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>39</v>
+      </c>
+      <c r="B364" t="s">
+        <v>430</v>
+      </c>
+      <c r="C364" t="s">
+        <v>430</v>
+      </c>
+      <c r="E364" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>39</v>
+      </c>
+      <c r="B365" t="s">
+        <v>139</v>
+      </c>
+      <c r="C365" t="s">
+        <v>139</v>
+      </c>
+      <c r="E365" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>39</v>
+      </c>
+      <c r="B366" t="s">
+        <v>431</v>
+      </c>
+      <c r="C366" t="s">
+        <v>431</v>
+      </c>
+      <c r="E366" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>39</v>
+      </c>
+      <c r="B367" t="s">
+        <v>432</v>
+      </c>
+      <c r="C367" t="s">
+        <v>432</v>
+      </c>
+      <c r="E367" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>39</v>
+      </c>
+      <c r="B368" t="s">
+        <v>433</v>
+      </c>
+      <c r="C368" t="s">
+        <v>433</v>
+      </c>
+      <c r="E368" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2132,7 +7493,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2156,21 +7517,21 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>20201130</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>

--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9509F1-792D-421F-B6C3-437907ABF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4EE9D1-7C2E-41D1-ABB5-AADA6BB2F7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="444">
   <si>
     <t>form_title</t>
   </si>
@@ -1347,6 +1347,21 @@
   </si>
   <si>
     <t>${d_region} = region_list</t>
+  </si>
+  <si>
+    <t>d_elisa_value_od_2</t>
+  </si>
+  <si>
+    <t>d_elisa_result_2</t>
+  </si>
+  <si>
+    <t>ELISA - Valeur OD (test2)</t>
+  </si>
+  <si>
+    <t>ELISA - Décision final (test2)</t>
+  </si>
+  <si>
+    <t>${d_ov16_result_1} != 'Indéterminé' and ${d_ov16_result_2} != 'Indéterminé' and ${d_elisa_result} = 'Indéterminé'</t>
   </si>
 </sst>
 </file>
@@ -1816,13 +1831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:L5"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2211,52 +2226,60 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="20"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -2268,19 +2291,55 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2294,7 +2353,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD368"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4EE9D1-7C2E-41D1-ABB5-AADA6BB2F7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0DC353-4AAA-4ADE-9D25-4123F9EC1DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="452">
   <si>
     <t>form_title</t>
   </si>
@@ -314,12 +314,6 @@
     <t>${d_id_type} = 'Scanner'</t>
   </si>
   <si>
-    <t>(2023 Juillet) ONCHO Stop TDM - 3. Résultats de laboratoire V2</t>
-  </si>
-  <si>
-    <t>bj_oncho_stop_3_202306_diag_v2</t>
-  </si>
-  <si>
     <t>Entrer le nom du village</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
     <t>Résultat OV16 du test 2</t>
   </si>
   <si>
-    <t>${d_ov16_result_1} = 'Indéterminé'</t>
-  </si>
-  <si>
     <t>d_control_1</t>
   </si>
   <si>
@@ -362,9 +353,6 @@
     <t>ELISA - Décision final</t>
   </si>
   <si>
-    <t>${d_ov16_result_1} != 'Indéterminé' and ${d_ov16_result_2} != 'Indéterminé'</t>
-  </si>
-  <si>
     <t>d_manual_id2</t>
   </si>
   <si>
@@ -1361,7 +1349,43 @@
     <t>ELISA - Décision final (test2)</t>
   </si>
   <si>
-    <t>${d_ov16_result_1} != 'Indéterminé' and ${d_ov16_result_2} != 'Indéterminé' and ${d_elisa_result} = 'Indéterminé'</t>
+    <t>note</t>
+  </si>
+  <si>
+    <t>d_est_invalide_1</t>
+  </si>
+  <si>
+    <t>Le résultat est invalide parce que la contrôle est non visible</t>
+  </si>
+  <si>
+    <t>${d_control_1} = 'Non'</t>
+  </si>
+  <si>
+    <t>(2023 Juillet) ONCHO Stop TDM - 3. Résultats de laboratoire V2.2</t>
+  </si>
+  <si>
+    <t>${d_control_1} = 'Oui'</t>
+  </si>
+  <si>
+    <t>d_est_invalide_2</t>
+  </si>
+  <si>
+    <t>${d_control_2} = 'Non'</t>
+  </si>
+  <si>
+    <t>${d_ov16_result_1} = 'Indéterminé' or ${d_control_1} = 'Non'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${d_control_2} = 'Oui'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${d_elisa_result} = 'Indéterminé'</t>
+  </si>
+  <si>
+    <t>(${d_ov16_result_1} != 'Indéterminé' or  ${d_ov16_result_2} != 'Indéterminé' ) and ( ${d_control_1} = 'Oui' or ${d_control_2} = 'Oui')</t>
+  </si>
+  <si>
+    <t>bj_oncho_stop_3_202306_diag_v2_2</t>
   </si>
 </sst>
 </file>
@@ -1831,13 +1855,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1873,7 @@
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
     <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
@@ -1924,10 +1948,10 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>36</v>
@@ -1952,7 +1976,7 @@
         <v>70</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="15"/>
@@ -1965,7 +1989,7 @@
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="14" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1976,7 +2000,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="15"/>
@@ -2043,18 +2067,18 @@
         <v>25</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="15"/>
       <c r="F8" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>92</v>
@@ -2095,10 +2119,10 @@
         <v>79</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
@@ -2112,136 +2136,142 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="I11" s="13"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="I12" s="9"/>
       <c r="J12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="9"/>
+        <v>447</v>
+      </c>
+      <c r="I13" s="13"/>
       <c r="J13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="9"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="9"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="I14" s="13"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="12"/>
       <c r="H15" s="9" t="s">
-        <v>110</v>
+        <v>448</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="21"/>
+      <c r="J15" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>441</v>
+        <v>105</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="14" t="s">
-        <v>443</v>
+      <c r="H16" s="9" t="s">
+        <v>450</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="21"/>
@@ -2253,69 +2283,77 @@
         <v>84</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>440</v>
+        <v>102</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>442</v>
+        <v>106</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="12"/>
       <c r="H17" s="9" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="21"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+    <row r="18" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="D20" s="20"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -2327,19 +2365,55 @@
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2353,7 +2427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2623,10 +2697,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>50</v>
@@ -2639,10 +2713,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>50</v>
@@ -2655,10 +2729,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>50</v>
@@ -2687,10 +2761,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>50</v>
@@ -2703,10 +2777,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>50</v>
@@ -2719,10 +2793,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>50</v>
@@ -2735,10 +2809,10 @@
         <v>19</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>50</v>
@@ -2767,10 +2841,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>51</v>
@@ -2799,10 +2873,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>51</v>
@@ -2815,10 +2889,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>51</v>
@@ -2831,10 +2905,10 @@
         <v>19</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>52</v>
@@ -2847,10 +2921,10 @@
         <v>19</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>52</v>
@@ -2879,10 +2953,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>52</v>
@@ -2895,10 +2969,10 @@
         <v>19</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>52</v>
@@ -2911,10 +2985,10 @@
         <v>19</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>52</v>
@@ -2927,10 +3001,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>35</v>
@@ -2943,10 +3017,10 @@
         <v>19</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>35</v>
@@ -2959,10 +3033,10 @@
         <v>19</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>35</v>
@@ -2991,10 +3065,10 @@
         <v>19</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>35</v>
@@ -3023,10 +3097,10 @@
         <v>19</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>35</v>
@@ -3039,10 +3113,10 @@
         <v>19</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>35</v>
@@ -3055,10 +3129,10 @@
         <v>19</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>53</v>
@@ -3087,10 +3161,10 @@
         <v>19</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>53</v>
@@ -3119,10 +3193,10 @@
         <v>19</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>53</v>
@@ -3151,10 +3225,10 @@
         <v>19</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>53</v>
@@ -3175,13 +3249,13 @@
         <v>39</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3189,13 +3263,13 @@
         <v>39</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3203,13 +3277,13 @@
         <v>39</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3217,13 +3291,13 @@
         <v>39</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3231,13 +3305,13 @@
         <v>39</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,13 +3319,13 @@
         <v>39</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,13 +3333,13 @@
         <v>39</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -3273,13 +3347,13 @@
         <v>39</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3287,13 +3361,13 @@
         <v>39</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E65" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3301,13 +3375,13 @@
         <v>39</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3315,13 +3389,13 @@
         <v>39</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3329,13 +3403,13 @@
         <v>39</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3343,13 +3417,13 @@
         <v>39</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3357,13 +3431,13 @@
         <v>39</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3371,13 +3445,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3385,13 +3459,13 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3399,13 +3473,13 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3413,13 +3487,13 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E74" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3427,13 +3501,13 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3441,13 +3515,13 @@
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3455,13 +3529,13 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,13 +3543,13 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E78" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3483,13 +3557,13 @@
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,13 +3571,13 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E80" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3511,13 +3585,13 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E81" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3525,13 +3599,13 @@
         <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3539,13 +3613,13 @@
         <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3553,13 +3627,13 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3567,13 +3641,13 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3581,13 +3655,13 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E86" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3595,13 +3669,13 @@
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E87" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3609,13 +3683,13 @@
         <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E88" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,13 +3697,13 @@
         <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C89" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E89" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3637,13 +3711,13 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E90" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3651,13 +3725,13 @@
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3665,13 +3739,13 @@
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3679,13 +3753,13 @@
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3693,13 +3767,13 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E94" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,13 +3781,13 @@
         <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E95" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3721,13 +3795,13 @@
         <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E96" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3735,13 +3809,13 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E97" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3749,13 +3823,13 @@
         <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E98" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3763,13 +3837,13 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C99" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E99" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3777,13 +3851,13 @@
         <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C100" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E100" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3791,13 +3865,13 @@
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E101" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3805,13 +3879,13 @@
         <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E102" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3819,13 +3893,13 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E103" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3833,13 +3907,13 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E104" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,13 +3921,13 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3861,13 +3935,13 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E106" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3875,13 +3949,13 @@
         <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E107" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3889,13 +3963,13 @@
         <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E108" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3903,10 +3977,10 @@
         <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E109" t="s">
         <v>50</v>
@@ -3917,10 +3991,10 @@
         <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E110" t="s">
         <v>50</v>
@@ -3931,10 +4005,10 @@
         <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C111" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E111" t="s">
         <v>50</v>
@@ -3945,10 +4019,10 @@
         <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C112" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E112" t="s">
         <v>50</v>
@@ -3973,10 +4047,10 @@
         <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C114" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E114" t="s">
         <v>51</v>
@@ -3987,10 +4061,10 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C115" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E115" t="s">
         <v>51</v>
@@ -4001,10 +4075,10 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C116" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E116" t="s">
         <v>51</v>
@@ -4015,10 +4089,10 @@
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C117" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E117" t="s">
         <v>51</v>
@@ -4043,10 +4117,10 @@
         <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C119" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E119" t="s">
         <v>51</v>
@@ -4057,10 +4131,10 @@
         <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E120" t="s">
         <v>51</v>
@@ -4071,10 +4145,10 @@
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C121" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E121" t="s">
         <v>51</v>
@@ -4085,10 +4159,10 @@
         <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C122" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E122" t="s">
         <v>51</v>
@@ -4099,10 +4173,10 @@
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C123" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E123" t="s">
         <v>51</v>
@@ -4113,10 +4187,10 @@
         <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C124" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E124" t="s">
         <v>51</v>
@@ -4127,10 +4201,10 @@
         <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C125" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E125" t="s">
         <v>51</v>
@@ -4141,10 +4215,10 @@
         <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C126" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E126" t="s">
         <v>51</v>
@@ -4155,10 +4229,10 @@
         <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C127" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E127" t="s">
         <v>51</v>
@@ -4169,10 +4243,10 @@
         <v>39</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E128" t="s">
         <v>51</v>
@@ -4197,10 +4271,10 @@
         <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E130" t="s">
         <v>51</v>
@@ -4211,10 +4285,10 @@
         <v>39</v>
       </c>
       <c r="B131" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C131" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E131" t="s">
         <v>51</v>
@@ -4225,10 +4299,10 @@
         <v>39</v>
       </c>
       <c r="B132" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C132" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E132" t="s">
         <v>51</v>
@@ -4239,13 +4313,13 @@
         <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C133" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E133" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4259,7 +4333,7 @@
         <v>37</v>
       </c>
       <c r="E134" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4273,7 +4347,7 @@
         <v>66</v>
       </c>
       <c r="E135" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4281,13 +4355,13 @@
         <v>39</v>
       </c>
       <c r="B136" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C136" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E136" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4301,7 +4375,7 @@
         <v>38</v>
       </c>
       <c r="E137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4309,10 +4383,10 @@
         <v>39</v>
       </c>
       <c r="B138" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C138" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E138" t="s">
         <v>62</v>
@@ -4323,10 +4397,10 @@
         <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E139" t="s">
         <v>62</v>
@@ -4337,10 +4411,10 @@
         <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E140" t="s">
         <v>62</v>
@@ -4351,10 +4425,10 @@
         <v>39</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C141" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E141" t="s">
         <v>62</v>
@@ -4365,10 +4439,10 @@
         <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E142" t="s">
         <v>62</v>
@@ -4379,10 +4453,10 @@
         <v>39</v>
       </c>
       <c r="B143" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E143" t="s">
         <v>62</v>
@@ -4393,10 +4467,10 @@
         <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C144" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E144" t="s">
         <v>62</v>
@@ -4407,10 +4481,10 @@
         <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C145" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E145" t="s">
         <v>62</v>
@@ -4421,10 +4495,10 @@
         <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C146" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E146" t="s">
         <v>62</v>
@@ -4435,10 +4509,10 @@
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C147" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E147" t="s">
         <v>62</v>
@@ -4449,10 +4523,10 @@
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C148" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E148" t="s">
         <v>62</v>
@@ -4463,10 +4537,10 @@
         <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C149" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E149" t="s">
         <v>62</v>
@@ -4477,13 +4551,13 @@
         <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C150" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E150" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4491,13 +4565,13 @@
         <v>39</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C151" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E151" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4505,13 +4579,13 @@
         <v>39</v>
       </c>
       <c r="B152" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C152" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E152" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4519,13 +4593,13 @@
         <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C153" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E153" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4533,13 +4607,13 @@
         <v>39</v>
       </c>
       <c r="B154" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E154" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4547,13 +4621,13 @@
         <v>39</v>
       </c>
       <c r="B155" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C155" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E155" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4561,13 +4635,13 @@
         <v>39</v>
       </c>
       <c r="B156" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C156" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E156" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4575,13 +4649,13 @@
         <v>39</v>
       </c>
       <c r="B157" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C157" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E157" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4589,13 +4663,13 @@
         <v>39</v>
       </c>
       <c r="B158" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C158" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E158" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,13 +4677,13 @@
         <v>39</v>
       </c>
       <c r="B159" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C159" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E159" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4617,13 +4691,13 @@
         <v>39</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C160" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E160" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4631,13 +4705,13 @@
         <v>39</v>
       </c>
       <c r="B161" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C161" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E161" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4645,13 +4719,13 @@
         <v>39</v>
       </c>
       <c r="B162" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C162" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E162" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4659,13 +4733,13 @@
         <v>39</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C163" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E163" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4673,13 +4747,13 @@
         <v>39</v>
       </c>
       <c r="B164" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C164" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E164" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4687,13 +4761,13 @@
         <v>39</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C165" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E165" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4701,13 +4775,13 @@
         <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C166" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E166" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4715,13 +4789,13 @@
         <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C167" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E167" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4729,13 +4803,13 @@
         <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E168" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4743,13 +4817,13 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C169" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E169" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4757,13 +4831,13 @@
         <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C170" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E170" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4771,13 +4845,13 @@
         <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C171" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E171" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4785,13 +4859,13 @@
         <v>39</v>
       </c>
       <c r="B172" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C172" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E172" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4799,13 +4873,13 @@
         <v>39</v>
       </c>
       <c r="B173" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C173" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E173" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4813,13 +4887,13 @@
         <v>39</v>
       </c>
       <c r="B174" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C174" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E174" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4827,13 +4901,13 @@
         <v>39</v>
       </c>
       <c r="B175" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C175" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E175" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4841,13 +4915,13 @@
         <v>39</v>
       </c>
       <c r="B176" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E176" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,13 +4929,13 @@
         <v>39</v>
       </c>
       <c r="B177" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C177" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E177" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4869,10 +4943,10 @@
         <v>39</v>
       </c>
       <c r="B178" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C178" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E178" t="s">
         <v>61</v>
@@ -4883,10 +4957,10 @@
         <v>39</v>
       </c>
       <c r="B179" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C179" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E179" t="s">
         <v>61</v>
@@ -4897,10 +4971,10 @@
         <v>39</v>
       </c>
       <c r="B180" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C180" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E180" t="s">
         <v>61</v>
@@ -4911,10 +4985,10 @@
         <v>39</v>
       </c>
       <c r="B181" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C181" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E181" t="s">
         <v>61</v>
@@ -4925,10 +4999,10 @@
         <v>39</v>
       </c>
       <c r="B182" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C182" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E182" t="s">
         <v>61</v>
@@ -4939,10 +5013,10 @@
         <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C183" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E183" t="s">
         <v>61</v>
@@ -4953,10 +5027,10 @@
         <v>39</v>
       </c>
       <c r="B184" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C184" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E184" t="s">
         <v>61</v>
@@ -4967,10 +5041,10 @@
         <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C185" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E185" t="s">
         <v>61</v>
@@ -4981,10 +5055,10 @@
         <v>39</v>
       </c>
       <c r="B186" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C186" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E186" t="s">
         <v>61</v>
@@ -4995,10 +5069,10 @@
         <v>39</v>
       </c>
       <c r="B187" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C187" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E187" t="s">
         <v>61</v>
@@ -5009,10 +5083,10 @@
         <v>39</v>
       </c>
       <c r="B188" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C188" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E188" t="s">
         <v>61</v>
@@ -5023,10 +5097,10 @@
         <v>39</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C189" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E189" t="s">
         <v>63</v>
@@ -5037,10 +5111,10 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C190" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E190" t="s">
         <v>63</v>
@@ -5051,10 +5125,10 @@
         <v>39</v>
       </c>
       <c r="B191" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C191" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E191" t="s">
         <v>63</v>
@@ -5065,10 +5139,10 @@
         <v>39</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C192" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E192" t="s">
         <v>63</v>
@@ -5079,10 +5153,10 @@
         <v>39</v>
       </c>
       <c r="B193" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C193" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E193" t="s">
         <v>63</v>
@@ -5107,10 +5181,10 @@
         <v>39</v>
       </c>
       <c r="B195" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C195" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E195" t="s">
         <v>63</v>
@@ -5121,10 +5195,10 @@
         <v>39</v>
       </c>
       <c r="B196" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C196" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E196" t="s">
         <v>63</v>
@@ -5135,10 +5209,10 @@
         <v>39</v>
       </c>
       <c r="B197" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C197" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E197" t="s">
         <v>63</v>
@@ -5163,10 +5237,10 @@
         <v>39</v>
       </c>
       <c r="B199" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C199" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E199" t="s">
         <v>63</v>
@@ -5177,10 +5251,10 @@
         <v>39</v>
       </c>
       <c r="B200" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C200" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E200" t="s">
         <v>63</v>
@@ -5191,10 +5265,10 @@
         <v>39</v>
       </c>
       <c r="B201" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C201" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E201" t="s">
         <v>63</v>
@@ -5205,10 +5279,10 @@
         <v>39</v>
       </c>
       <c r="B202" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C202" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E202" t="s">
         <v>63</v>
@@ -5219,10 +5293,10 @@
         <v>39</v>
       </c>
       <c r="B203" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C203" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E203" t="s">
         <v>63</v>
@@ -5233,10 +5307,10 @@
         <v>39</v>
       </c>
       <c r="B204" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C204" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E204" t="s">
         <v>63</v>
@@ -5247,10 +5321,10 @@
         <v>39</v>
       </c>
       <c r="B205" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C205" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E205" t="s">
         <v>63</v>
@@ -5261,10 +5335,10 @@
         <v>39</v>
       </c>
       <c r="B206" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C206" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E206" t="s">
         <v>63</v>
@@ -5275,10 +5349,10 @@
         <v>39</v>
       </c>
       <c r="B207" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C207" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E207" t="s">
         <v>63</v>
@@ -5289,10 +5363,10 @@
         <v>39</v>
       </c>
       <c r="B208" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C208" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E208" t="s">
         <v>63</v>
@@ -5303,10 +5377,10 @@
         <v>39</v>
       </c>
       <c r="B209" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C209" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E209" t="s">
         <v>63</v>
@@ -5317,13 +5391,13 @@
         <v>39</v>
       </c>
       <c r="B210" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C210" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E210" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5331,13 +5405,13 @@
         <v>39</v>
       </c>
       <c r="B211" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C211" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E211" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5345,13 +5419,13 @@
         <v>39</v>
       </c>
       <c r="B212" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C212" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E212" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5359,13 +5433,13 @@
         <v>39</v>
       </c>
       <c r="B213" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C213" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E213" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5373,13 +5447,13 @@
         <v>39</v>
       </c>
       <c r="B214" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C214" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E214" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5387,13 +5461,13 @@
         <v>39</v>
       </c>
       <c r="B215" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C215" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E215" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5401,13 +5475,13 @@
         <v>39</v>
       </c>
       <c r="B216" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C216" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E216" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5415,13 +5489,13 @@
         <v>39</v>
       </c>
       <c r="B217" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C217" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E217" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5429,13 +5503,13 @@
         <v>39</v>
       </c>
       <c r="B218" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C218" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E218" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5443,13 +5517,13 @@
         <v>39</v>
       </c>
       <c r="B219" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C219" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E219" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5457,13 +5531,13 @@
         <v>39</v>
       </c>
       <c r="B220" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C220" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E220" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5471,13 +5545,13 @@
         <v>39</v>
       </c>
       <c r="B221" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C221" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E221" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5485,13 +5559,13 @@
         <v>39</v>
       </c>
       <c r="B222" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C222" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E222" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5499,13 +5573,13 @@
         <v>39</v>
       </c>
       <c r="B223" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C223" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E223" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5513,13 +5587,13 @@
         <v>39</v>
       </c>
       <c r="B224" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C224" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E224" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5527,13 +5601,13 @@
         <v>39</v>
       </c>
       <c r="B225" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C225" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E225" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5541,13 +5615,13 @@
         <v>39</v>
       </c>
       <c r="B226" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C226" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E226" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5555,13 +5629,13 @@
         <v>39</v>
       </c>
       <c r="B227" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C227" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E227" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5569,13 +5643,13 @@
         <v>39</v>
       </c>
       <c r="B228" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C228" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E228" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5583,13 +5657,13 @@
         <v>39</v>
       </c>
       <c r="B229" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C229" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E229" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5597,13 +5671,13 @@
         <v>39</v>
       </c>
       <c r="B230" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C230" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E230" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5611,13 +5685,13 @@
         <v>39</v>
       </c>
       <c r="B231" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C231" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E231" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5625,13 +5699,13 @@
         <v>39</v>
       </c>
       <c r="B232" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C232" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E232" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5639,13 +5713,13 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C233" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E233" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5653,13 +5727,13 @@
         <v>39</v>
       </c>
       <c r="B234" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C234" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E234" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5667,13 +5741,13 @@
         <v>39</v>
       </c>
       <c r="B235" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C235" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E235" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5681,13 +5755,13 @@
         <v>39</v>
       </c>
       <c r="B236" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C236" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E236" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5695,13 +5769,13 @@
         <v>39</v>
       </c>
       <c r="B237" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C237" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E237" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5709,10 +5783,10 @@
         <v>39</v>
       </c>
       <c r="B238" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C238" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E238" t="s">
         <v>57</v>
@@ -5723,10 +5797,10 @@
         <v>39</v>
       </c>
       <c r="B239" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C239" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E239" t="s">
         <v>57</v>
@@ -5737,10 +5811,10 @@
         <v>39</v>
       </c>
       <c r="B240" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C240" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E240" t="s">
         <v>57</v>
@@ -5751,10 +5825,10 @@
         <v>39</v>
       </c>
       <c r="B241" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C241" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E241" t="s">
         <v>57</v>
@@ -5765,10 +5839,10 @@
         <v>39</v>
       </c>
       <c r="B242" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C242" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E242" t="s">
         <v>57</v>
@@ -5779,10 +5853,10 @@
         <v>39</v>
       </c>
       <c r="B243" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C243" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E243" t="s">
         <v>57</v>
@@ -5793,10 +5867,10 @@
         <v>39</v>
       </c>
       <c r="B244" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C244" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E244" t="s">
         <v>52</v>
@@ -5807,10 +5881,10 @@
         <v>39</v>
       </c>
       <c r="B245" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C245" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E245" t="s">
         <v>52</v>
@@ -5821,10 +5895,10 @@
         <v>39</v>
       </c>
       <c r="B246" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C246" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E246" t="s">
         <v>52</v>
@@ -5835,10 +5909,10 @@
         <v>39</v>
       </c>
       <c r="B247" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C247" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E247" t="s">
         <v>52</v>
@@ -5849,10 +5923,10 @@
         <v>39</v>
       </c>
       <c r="B248" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C248" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E248" t="s">
         <v>52</v>
@@ -5863,10 +5937,10 @@
         <v>39</v>
       </c>
       <c r="B249" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C249" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E249" t="s">
         <v>52</v>
@@ -5877,10 +5951,10 @@
         <v>39</v>
       </c>
       <c r="B250" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C250" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E250" t="s">
         <v>52</v>
@@ -5891,10 +5965,10 @@
         <v>39</v>
       </c>
       <c r="B251" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C251" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E251" t="s">
         <v>52</v>
@@ -5905,10 +5979,10 @@
         <v>39</v>
       </c>
       <c r="B252" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C252" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E252" t="s">
         <v>52</v>
@@ -5919,10 +5993,10 @@
         <v>39</v>
       </c>
       <c r="B253" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C253" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E253" t="s">
         <v>52</v>
@@ -5933,10 +6007,10 @@
         <v>39</v>
       </c>
       <c r="B254" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C254" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E254" t="s">
         <v>52</v>
@@ -5947,10 +6021,10 @@
         <v>39</v>
       </c>
       <c r="B255" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C255" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E255" t="s">
         <v>52</v>
@@ -5961,10 +6035,10 @@
         <v>39</v>
       </c>
       <c r="B256" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C256" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E256" t="s">
         <v>52</v>
@@ -5975,13 +6049,13 @@
         <v>39</v>
       </c>
       <c r="B257" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C257" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E257" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -5989,13 +6063,13 @@
         <v>39</v>
       </c>
       <c r="B258" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C258" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E258" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6003,13 +6077,13 @@
         <v>39</v>
       </c>
       <c r="B259" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C259" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E259" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6017,13 +6091,13 @@
         <v>39</v>
       </c>
       <c r="B260" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C260" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E260" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6031,13 +6105,13 @@
         <v>39</v>
       </c>
       <c r="B261" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C261" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E261" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6045,13 +6119,13 @@
         <v>39</v>
       </c>
       <c r="B262" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C262" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E262" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6059,13 +6133,13 @@
         <v>39</v>
       </c>
       <c r="B263" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C263" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E263" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6073,13 +6147,13 @@
         <v>39</v>
       </c>
       <c r="B264" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C264" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E264" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6087,13 +6161,13 @@
         <v>39</v>
       </c>
       <c r="B265" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C265" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E265" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6101,13 +6175,13 @@
         <v>39</v>
       </c>
       <c r="B266" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C266" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E266" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6115,13 +6189,13 @@
         <v>39</v>
       </c>
       <c r="B267" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C267" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E267" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6135,7 +6209,7 @@
         <v>65</v>
       </c>
       <c r="E268" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6143,13 +6217,13 @@
         <v>39</v>
       </c>
       <c r="B269" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C269" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E269" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6157,13 +6231,13 @@
         <v>39</v>
       </c>
       <c r="B270" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C270" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E270" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6171,13 +6245,13 @@
         <v>39</v>
       </c>
       <c r="B271" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C271" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E271" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6185,13 +6259,13 @@
         <v>39</v>
       </c>
       <c r="B272" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C272" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E272" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6199,10 +6273,10 @@
         <v>39</v>
       </c>
       <c r="B273" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C273" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E273" t="s">
         <v>60</v>
@@ -6213,10 +6287,10 @@
         <v>39</v>
       </c>
       <c r="B274" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C274" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E274" t="s">
         <v>60</v>
@@ -6227,10 +6301,10 @@
         <v>39</v>
       </c>
       <c r="B275" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C275" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E275" t="s">
         <v>60</v>
@@ -6241,10 +6315,10 @@
         <v>39</v>
       </c>
       <c r="B276" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C276" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E276" t="s">
         <v>60</v>
@@ -6255,10 +6329,10 @@
         <v>39</v>
       </c>
       <c r="B277" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C277" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E277" t="s">
         <v>60</v>
@@ -6269,10 +6343,10 @@
         <v>39</v>
       </c>
       <c r="B278" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C278" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E278" t="s">
         <v>60</v>
@@ -6283,10 +6357,10 @@
         <v>39</v>
       </c>
       <c r="B279" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C279" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E279" t="s">
         <v>60</v>
@@ -6297,13 +6371,13 @@
         <v>39</v>
       </c>
       <c r="B280" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C280" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E280" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6311,13 +6385,13 @@
         <v>39</v>
       </c>
       <c r="B281" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C281" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E281" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6325,13 +6399,13 @@
         <v>39</v>
       </c>
       <c r="B282" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C282" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E282" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6339,13 +6413,13 @@
         <v>39</v>
       </c>
       <c r="B283" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C283" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E283" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6353,13 +6427,13 @@
         <v>39</v>
       </c>
       <c r="B284" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C284" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E284" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -6367,13 +6441,13 @@
         <v>39</v>
       </c>
       <c r="B285" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C285" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E285" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6381,13 +6455,13 @@
         <v>39</v>
       </c>
       <c r="B286" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C286" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E286" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -6395,13 +6469,13 @@
         <v>39</v>
       </c>
       <c r="B287" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C287" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E287" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -6409,13 +6483,13 @@
         <v>39</v>
       </c>
       <c r="B288" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C288" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E288" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -6423,13 +6497,13 @@
         <v>39</v>
       </c>
       <c r="B289" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C289" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E289" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -6437,13 +6511,13 @@
         <v>39</v>
       </c>
       <c r="B290" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C290" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E290" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -6451,13 +6525,13 @@
         <v>39</v>
       </c>
       <c r="B291" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C291" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E291" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6465,13 +6539,13 @@
         <v>39</v>
       </c>
       <c r="B292" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C292" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E292" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -6479,13 +6553,13 @@
         <v>39</v>
       </c>
       <c r="B293" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C293" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E293" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -6493,13 +6567,13 @@
         <v>39</v>
       </c>
       <c r="B294" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C294" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E294" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -6507,13 +6581,13 @@
         <v>39</v>
       </c>
       <c r="B295" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C295" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E295" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -6521,13 +6595,13 @@
         <v>39</v>
       </c>
       <c r="B296" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C296" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E296" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -6535,13 +6609,13 @@
         <v>39</v>
       </c>
       <c r="B297" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C297" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E297" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6549,13 +6623,13 @@
         <v>39</v>
       </c>
       <c r="B298" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C298" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E298" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6563,13 +6637,13 @@
         <v>39</v>
       </c>
       <c r="B299" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C299" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E299" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6577,13 +6651,13 @@
         <v>39</v>
       </c>
       <c r="B300" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C300" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E300" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -6591,13 +6665,13 @@
         <v>39</v>
       </c>
       <c r="B301" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C301" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E301" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -6605,13 +6679,13 @@
         <v>39</v>
       </c>
       <c r="B302" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C302" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E302" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -6619,13 +6693,13 @@
         <v>39</v>
       </c>
       <c r="B303" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C303" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E303" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -6633,13 +6707,13 @@
         <v>39</v>
       </c>
       <c r="B304" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C304" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E304" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -6647,13 +6721,13 @@
         <v>39</v>
       </c>
       <c r="B305" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C305" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E305" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -6661,13 +6735,13 @@
         <v>39</v>
       </c>
       <c r="B306" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C306" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E306" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -6675,13 +6749,13 @@
         <v>39</v>
       </c>
       <c r="B307" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C307" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E307" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -6689,13 +6763,13 @@
         <v>39</v>
       </c>
       <c r="B308" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C308" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E308" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -6703,13 +6777,13 @@
         <v>39</v>
       </c>
       <c r="B309" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C309" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E309" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -6717,13 +6791,13 @@
         <v>39</v>
       </c>
       <c r="B310" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C310" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E310" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -6731,13 +6805,13 @@
         <v>39</v>
       </c>
       <c r="B311" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C311" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E311" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -6745,13 +6819,13 @@
         <v>39</v>
       </c>
       <c r="B312" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C312" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E312" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -6759,13 +6833,13 @@
         <v>39</v>
       </c>
       <c r="B313" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C313" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E313" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -6773,13 +6847,13 @@
         <v>39</v>
       </c>
       <c r="B314" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C314" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E314" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -6787,13 +6861,13 @@
         <v>39</v>
       </c>
       <c r="B315" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C315" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E315" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -6801,13 +6875,13 @@
         <v>39</v>
       </c>
       <c r="B316" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C316" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E316" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -6815,13 +6889,13 @@
         <v>39</v>
       </c>
       <c r="B317" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C317" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E317" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -6829,13 +6903,13 @@
         <v>39</v>
       </c>
       <c r="B318" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C318" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E318" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -6843,13 +6917,13 @@
         <v>39</v>
       </c>
       <c r="B319" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C319" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E319" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -6857,13 +6931,13 @@
         <v>39</v>
       </c>
       <c r="B320" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C320" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E320" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -6871,13 +6945,13 @@
         <v>39</v>
       </c>
       <c r="B321" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C321" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E321" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -6885,13 +6959,13 @@
         <v>39</v>
       </c>
       <c r="B322" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C322" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E322" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -6899,13 +6973,13 @@
         <v>39</v>
       </c>
       <c r="B323" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C323" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E323" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -6913,13 +6987,13 @@
         <v>39</v>
       </c>
       <c r="B324" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C324" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E324" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -6927,13 +7001,13 @@
         <v>39</v>
       </c>
       <c r="B325" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C325" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E325" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -6941,13 +7015,13 @@
         <v>39</v>
       </c>
       <c r="B326" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C326" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E326" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -6955,13 +7029,13 @@
         <v>39</v>
       </c>
       <c r="B327" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C327" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E327" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -6969,13 +7043,13 @@
         <v>39</v>
       </c>
       <c r="B328" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C328" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E328" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -6983,13 +7057,13 @@
         <v>39</v>
       </c>
       <c r="B329" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C329" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E329" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7003,7 +7077,7 @@
         <v>67</v>
       </c>
       <c r="E330" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7011,13 +7085,13 @@
         <v>39</v>
       </c>
       <c r="B331" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C331" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E331" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7025,13 +7099,13 @@
         <v>39</v>
       </c>
       <c r="B332" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C332" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E332" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7039,13 +7113,13 @@
         <v>39</v>
       </c>
       <c r="B333" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C333" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E333" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7053,10 +7127,10 @@
         <v>39</v>
       </c>
       <c r="B334" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C334" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E334" t="s">
         <v>53</v>
@@ -7067,10 +7141,10 @@
         <v>39</v>
       </c>
       <c r="B335" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C335" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E335" t="s">
         <v>53</v>
@@ -7081,10 +7155,10 @@
         <v>39</v>
       </c>
       <c r="B336" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C336" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E336" t="s">
         <v>53</v>
@@ -7095,10 +7169,10 @@
         <v>39</v>
       </c>
       <c r="B337" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C337" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E337" t="s">
         <v>53</v>
@@ -7109,10 +7183,10 @@
         <v>39</v>
       </c>
       <c r="B338" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C338" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E338" t="s">
         <v>53</v>
@@ -7123,10 +7197,10 @@
         <v>39</v>
       </c>
       <c r="B339" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C339" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E339" t="s">
         <v>53</v>
@@ -7137,10 +7211,10 @@
         <v>39</v>
       </c>
       <c r="B340" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C340" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E340" t="s">
         <v>53</v>
@@ -7151,10 +7225,10 @@
         <v>39</v>
       </c>
       <c r="B341" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C341" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E341" t="s">
         <v>53</v>
@@ -7165,10 +7239,10 @@
         <v>39</v>
       </c>
       <c r="B342" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C342" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E342" t="s">
         <v>53</v>
@@ -7179,10 +7253,10 @@
         <v>39</v>
       </c>
       <c r="B343" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C343" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E343" t="s">
         <v>53</v>
@@ -7193,10 +7267,10 @@
         <v>39</v>
       </c>
       <c r="B344" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C344" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E344" t="s">
         <v>53</v>
@@ -7207,10 +7281,10 @@
         <v>39</v>
       </c>
       <c r="B345" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C345" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E345" t="s">
         <v>53</v>
@@ -7221,10 +7295,10 @@
         <v>39</v>
       </c>
       <c r="B346" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C346" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E346" t="s">
         <v>53</v>
@@ -7235,10 +7309,10 @@
         <v>39</v>
       </c>
       <c r="B347" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C347" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E347" t="s">
         <v>53</v>
@@ -7263,10 +7337,10 @@
         <v>39</v>
       </c>
       <c r="B349" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C349" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E349" t="s">
         <v>53</v>
@@ -7277,10 +7351,10 @@
         <v>39</v>
       </c>
       <c r="B350" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C350" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E350" t="s">
         <v>53</v>
@@ -7291,10 +7365,10 @@
         <v>39</v>
       </c>
       <c r="B351" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C351" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E351" t="s">
         <v>53</v>
@@ -7305,10 +7379,10 @@
         <v>39</v>
       </c>
       <c r="B352" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C352" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E352" t="s">
         <v>53</v>
@@ -7319,13 +7393,13 @@
         <v>39</v>
       </c>
       <c r="B353" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C353" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E353" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -7333,13 +7407,13 @@
         <v>39</v>
       </c>
       <c r="B354" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C354" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E354" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -7347,13 +7421,13 @@
         <v>39</v>
       </c>
       <c r="B355" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C355" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E355" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -7361,13 +7435,13 @@
         <v>39</v>
       </c>
       <c r="B356" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C356" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E356" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -7375,13 +7449,13 @@
         <v>39</v>
       </c>
       <c r="B357" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C357" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E357" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -7389,13 +7463,13 @@
         <v>39</v>
       </c>
       <c r="B358" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C358" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E358" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -7403,13 +7477,13 @@
         <v>39</v>
       </c>
       <c r="B359" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C359" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E359" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -7417,13 +7491,13 @@
         <v>39</v>
       </c>
       <c r="B360" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C360" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E360" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -7431,13 +7505,13 @@
         <v>39</v>
       </c>
       <c r="B361" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C361" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E361" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -7445,13 +7519,13 @@
         <v>39</v>
       </c>
       <c r="B362" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C362" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E362" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -7459,13 +7533,13 @@
         <v>39</v>
       </c>
       <c r="B363" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C363" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E363" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -7473,13 +7547,13 @@
         <v>39</v>
       </c>
       <c r="B364" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C364" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E364" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -7487,13 +7561,13 @@
         <v>39</v>
       </c>
       <c r="B365" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C365" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E365" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -7501,13 +7575,13 @@
         <v>39</v>
       </c>
       <c r="B366" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C366" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E366" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -7515,13 +7589,13 @@
         <v>39</v>
       </c>
       <c r="B367" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C367" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E367" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -7529,13 +7603,13 @@
         <v>39</v>
       </c>
       <c r="B368" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C368" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E368" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -7551,8 +7625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7581,10 +7655,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>451</v>
       </c>
       <c r="C2">
         <v>20201130</v>

--- a/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/bj_oncho_stop_3_202306_diag.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0DC353-4AAA-4ADE-9D25-4123F9EC1DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC1F0D4-C4EE-470E-AFBA-B54446538FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="441">
   <si>
     <t>form_title</t>
   </si>
@@ -338,21 +338,6 @@
     <t>Ligne de contrôle positive visible du test 2</t>
   </si>
   <si>
-    <t>d_elisa_result</t>
-  </si>
-  <si>
-    <t>d_elisa_value_od</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>ELISA - Valeur OD</t>
-  </si>
-  <si>
-    <t>ELISA - Décision final</t>
-  </si>
-  <si>
     <t>d_manual_id2</t>
   </si>
   <si>
@@ -1337,18 +1322,6 @@
     <t>${d_region} = region_list</t>
   </si>
   <si>
-    <t>d_elisa_value_od_2</t>
-  </si>
-  <si>
-    <t>d_elisa_result_2</t>
-  </si>
-  <si>
-    <t>ELISA - Valeur OD (test2)</t>
-  </si>
-  <si>
-    <t>ELISA - Décision final (test2)</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -1361,9 +1334,6 @@
     <t>${d_control_1} = 'Non'</t>
   </si>
   <si>
-    <t>(2023 Juillet) ONCHO Stop TDM - 3. Résultats de laboratoire V2.2</t>
-  </si>
-  <si>
     <t>${d_control_1} = 'Oui'</t>
   </si>
   <si>
@@ -1379,13 +1349,10 @@
     <t xml:space="preserve"> ${d_control_2} = 'Oui'</t>
   </si>
   <si>
-    <t xml:space="preserve"> ${d_elisa_result} = 'Indéterminé'</t>
-  </si>
-  <si>
-    <t>(${d_ov16_result_1} != 'Indéterminé' or  ${d_ov16_result_2} != 'Indéterminé' ) and ( ${d_control_1} = 'Oui' or ${d_control_2} = 'Oui')</t>
-  </si>
-  <si>
-    <t>bj_oncho_stop_3_202306_diag_v2_2</t>
+    <t>bj_oncho_stop_3_202306_diag_v3</t>
+  </si>
+  <si>
+    <t>(2023 Juillet) ONCHO Stop TDM - 3. Résultats de laboratoire TDR</t>
   </si>
 </sst>
 </file>
@@ -1504,16 +1471,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1524,7 +1488,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1533,14 +1497,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1555,12 +1516,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1855,13 +1810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A16:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1881,539 +1836,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="9" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C11" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="9" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="9" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2438,121 +2305,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="1"/>
@@ -2560,13 +2427,13 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="1"/>
@@ -2574,54 +2441,54 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="1"/>
@@ -2629,13 +2496,13 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="1"/>
@@ -2643,13 +2510,13 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="1"/>
@@ -2657,13 +2524,13 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="1"/>
@@ -2671,13 +2538,13 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="1"/>
@@ -2685,22 +2552,22 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>111</v>
+      <c r="B22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>50</v>
@@ -2709,14 +2576,14 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>112</v>
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>50</v>
@@ -2725,14 +2592,14 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>113</v>
+      <c r="B24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>50</v>
@@ -2741,13 +2608,13 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2757,14 +2624,14 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>114</v>
+      <c r="B26" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>50</v>
@@ -2773,14 +2640,14 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>115</v>
+      <c r="B27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>50</v>
@@ -2789,14 +2656,14 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>116</v>
+      <c r="B28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>50</v>
@@ -2805,14 +2672,14 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>117</v>
+      <c r="B29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>50</v>
@@ -2821,13 +2688,13 @@
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2837,14 +2704,14 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>118</v>
+      <c r="B31" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>51</v>
@@ -2853,13 +2720,13 @@
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2869,14 +2736,14 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>119</v>
+      <c r="B33" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>51</v>
@@ -2885,14 +2752,14 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>120</v>
+      <c r="B34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>51</v>
@@ -2901,14 +2768,14 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>121</v>
+      <c r="B35" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>52</v>
@@ -2917,14 +2784,14 @@
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>122</v>
+      <c r="B36" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>52</v>
@@ -2933,13 +2800,13 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2949,14 +2816,14 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>123</v>
+      <c r="B38" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>52</v>
@@ -2965,14 +2832,14 @@
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>124</v>
+      <c r="B39" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>52</v>
@@ -2981,14 +2848,14 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>125</v>
+      <c r="B40" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>52</v>
@@ -2997,14 +2864,14 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>126</v>
+      <c r="B41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>35</v>
@@ -3013,14 +2880,14 @@
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>127</v>
+      <c r="B42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>35</v>
@@ -3029,14 +2896,14 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>128</v>
+      <c r="B43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>35</v>
@@ -3045,13 +2912,13 @@
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3061,14 +2928,14 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>129</v>
+      <c r="B45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>35</v>
@@ -3077,13 +2944,13 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3093,14 +2960,14 @@
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>130</v>
+      <c r="B47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>35</v>
@@ -3109,14 +2976,14 @@
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>131</v>
+      <c r="B48" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>35</v>
@@ -3125,14 +2992,14 @@
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>132</v>
+      <c r="B49" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>53</v>
@@ -3141,13 +3008,13 @@
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3157,14 +3024,14 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>133</v>
+      <c r="B51" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>53</v>
@@ -3173,13 +3040,13 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3189,14 +3056,14 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>134</v>
+      <c r="B53" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>53</v>
@@ -3205,13 +3072,13 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3221,14 +3088,14 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>135</v>
+      <c r="B55" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>53</v>
@@ -3237,207 +3104,207 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="14" t="s">
+      <c r="A57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C62" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E57" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B58" s="14" t="s">
+      <c r="E62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C63" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="14" t="s">
+      <c r="E63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C64" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="14" t="s">
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C65" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B61" s="14" t="s">
+      <c r="E65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C66" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="14" t="s">
+      <c r="E66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C67" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="14" t="s">
+      <c r="E67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C68" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B64" s="14" t="s">
+      <c r="E68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C69" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="14" t="s">
+      <c r="E69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C70" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="E70" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3445,13 +3312,13 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3459,13 +3326,13 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3473,13 +3340,13 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3487,13 +3354,13 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3501,13 +3368,13 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E75" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3515,13 +3382,13 @@
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,13 +3396,13 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3543,13 +3410,13 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3557,13 +3424,13 @@
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,13 +3438,13 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,13 +3452,13 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,13 +3466,13 @@
         <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E82" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3613,13 +3480,13 @@
         <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E83" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,13 +3494,13 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E84" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3641,13 +3508,13 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3655,13 +3522,13 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3669,13 +3536,13 @@
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C87" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E87" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3683,13 +3550,13 @@
         <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3697,13 +3564,13 @@
         <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3711,13 +3578,13 @@
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,13 +3592,13 @@
         <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3739,13 +3606,13 @@
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E92" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3753,13 +3620,13 @@
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E93" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3767,13 +3634,13 @@
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3781,13 +3648,13 @@
         <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E95" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3795,13 +3662,13 @@
         <v>39</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E96" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3809,13 +3676,13 @@
         <v>39</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E97" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3823,13 +3690,13 @@
         <v>39</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3837,13 +3704,13 @@
         <v>39</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E99" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,13 +3718,13 @@
         <v>39</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3865,13 +3732,13 @@
         <v>39</v>
       </c>
       <c r="B101" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E101" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3879,13 +3746,13 @@
         <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C102" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E102" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3893,13 +3760,13 @@
         <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E103" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3907,13 +3774,13 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C104" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E104" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3921,13 +3788,13 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E105" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3935,13 +3802,13 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E106" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3949,13 +3816,13 @@
         <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C107" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E107" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3963,13 +3830,13 @@
         <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E108" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3977,10 +3844,10 @@
         <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C109" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E109" t="s">
         <v>50</v>
@@ -3991,10 +3858,10 @@
         <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C110" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E110" t="s">
         <v>50</v>
@@ -4005,10 +3872,10 @@
         <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E111" t="s">
         <v>50</v>
@@ -4019,10 +3886,10 @@
         <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E112" t="s">
         <v>50</v>
@@ -4047,10 +3914,10 @@
         <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E114" t="s">
         <v>51</v>
@@ -4061,10 +3928,10 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E115" t="s">
         <v>51</v>
@@ -4075,10 +3942,10 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E116" t="s">
         <v>51</v>
@@ -4089,10 +3956,10 @@
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E117" t="s">
         <v>51</v>
@@ -4117,10 +3984,10 @@
         <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C119" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E119" t="s">
         <v>51</v>
@@ -4131,10 +3998,10 @@
         <v>39</v>
       </c>
       <c r="B120" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C120" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E120" t="s">
         <v>51</v>
@@ -4145,10 +4012,10 @@
         <v>39</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E121" t="s">
         <v>51</v>
@@ -4159,10 +4026,10 @@
         <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E122" t="s">
         <v>51</v>
@@ -4173,10 +4040,10 @@
         <v>39</v>
       </c>
       <c r="B123" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C123" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E123" t="s">
         <v>51</v>
@@ -4187,10 +4054,10 @@
         <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E124" t="s">
         <v>51</v>
@@ -4201,10 +4068,10 @@
         <v>39</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E125" t="s">
         <v>51</v>
@@ -4215,10 +4082,10 @@
         <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C126" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E126" t="s">
         <v>51</v>
@@ -4229,10 +4096,10 @@
         <v>39</v>
       </c>
       <c r="B127" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C127" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E127" t="s">
         <v>51</v>
@@ -4243,10 +4110,10 @@
         <v>39</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E128" t="s">
         <v>51</v>
@@ -4271,10 +4138,10 @@
         <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C130" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E130" t="s">
         <v>51</v>
@@ -4285,10 +4152,10 @@
         <v>39</v>
       </c>
       <c r="B131" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C131" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E131" t="s">
         <v>51</v>
@@ -4299,10 +4166,10 @@
         <v>39</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C132" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E132" t="s">
         <v>51</v>
@@ -4313,13 +4180,13 @@
         <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C133" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E133" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4333,7 +4200,7 @@
         <v>37</v>
       </c>
       <c r="E134" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4347,7 +4214,7 @@
         <v>66</v>
       </c>
       <c r="E135" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4355,13 +4222,13 @@
         <v>39</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C136" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E136" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -4375,7 +4242,7 @@
         <v>38</v>
       </c>
       <c r="E137" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4383,10 +4250,10 @@
         <v>39</v>
       </c>
       <c r="B138" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C138" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E138" t="s">
         <v>62</v>
@@ -4397,10 +4264,10 @@
         <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C139" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E139" t="s">
         <v>62</v>
@@ -4411,10 +4278,10 @@
         <v>39</v>
       </c>
       <c r="B140" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C140" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E140" t="s">
         <v>62</v>
@@ -4425,10 +4292,10 @@
         <v>39</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C141" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E141" t="s">
         <v>62</v>
@@ -4439,10 +4306,10 @@
         <v>39</v>
       </c>
       <c r="B142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E142" t="s">
         <v>62</v>
@@ -4453,10 +4320,10 @@
         <v>39</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E143" t="s">
         <v>62</v>
@@ -4467,10 +4334,10 @@
         <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C144" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E144" t="s">
         <v>62</v>
@@ -4481,10 +4348,10 @@
         <v>39</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C145" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E145" t="s">
         <v>62</v>
@@ -4495,10 +4362,10 @@
         <v>39</v>
       </c>
       <c r="B146" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C146" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E146" t="s">
         <v>62</v>
@@ -4509,10 +4376,10 @@
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C147" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E147" t="s">
         <v>62</v>
@@ -4523,10 +4390,10 @@
         <v>39</v>
       </c>
       <c r="B148" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E148" t="s">
         <v>62</v>
@@ -4537,10 +4404,10 @@
         <v>39</v>
       </c>
       <c r="B149" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C149" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E149" t="s">
         <v>62</v>
@@ -4551,13 +4418,13 @@
         <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C150" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E150" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4565,13 +4432,13 @@
         <v>39</v>
       </c>
       <c r="B151" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C151" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E151" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4579,13 +4446,13 @@
         <v>39</v>
       </c>
       <c r="B152" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C152" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E152" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -4593,13 +4460,13 @@
         <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C153" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E153" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4607,13 +4474,13 @@
         <v>39</v>
       </c>
       <c r="B154" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C154" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E154" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -4621,13 +4488,13 @@
         <v>39</v>
       </c>
       <c r="B155" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C155" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E155" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4635,13 +4502,13 @@
         <v>39</v>
       </c>
       <c r="B156" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C156" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E156" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4649,13 +4516,13 @@
         <v>39</v>
       </c>
       <c r="B157" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C157" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E157" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4663,13 +4530,13 @@
         <v>39</v>
       </c>
       <c r="B158" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C158" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E158" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4677,13 +4544,13 @@
         <v>39</v>
       </c>
       <c r="B159" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C159" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E159" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -4691,13 +4558,13 @@
         <v>39</v>
       </c>
       <c r="B160" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C160" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E160" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -4705,13 +4572,13 @@
         <v>39</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C161" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E161" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,13 +4586,13 @@
         <v>39</v>
       </c>
       <c r="B162" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C162" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E162" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,13 +4600,13 @@
         <v>39</v>
       </c>
       <c r="B163" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C163" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E163" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4747,13 +4614,13 @@
         <v>39</v>
       </c>
       <c r="B164" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C164" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E164" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4761,13 +4628,13 @@
         <v>39</v>
       </c>
       <c r="B165" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C165" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E165" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4775,13 +4642,13 @@
         <v>39</v>
       </c>
       <c r="B166" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E166" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4789,13 +4656,13 @@
         <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C167" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E167" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4803,13 +4670,13 @@
         <v>39</v>
       </c>
       <c r="B168" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E168" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4817,13 +4684,13 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C169" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E169" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4831,13 +4698,13 @@
         <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C170" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E170" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4845,13 +4712,13 @@
         <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C171" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E171" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4859,13 +4726,13 @@
         <v>39</v>
       </c>
       <c r="B172" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C172" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E172" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4873,13 +4740,13 @@
         <v>39</v>
       </c>
       <c r="B173" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C173" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E173" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -4887,13 +4754,13 @@
         <v>39</v>
       </c>
       <c r="B174" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C174" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E174" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -4901,13 +4768,13 @@
         <v>39</v>
       </c>
       <c r="B175" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C175" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E175" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -4915,13 +4782,13 @@
         <v>39</v>
       </c>
       <c r="B176" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C176" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E176" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4929,13 +4796,13 @@
         <v>39</v>
       </c>
       <c r="B177" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C177" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E177" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4943,10 +4810,10 @@
         <v>39</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C178" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E178" t="s">
         <v>61</v>
@@ -4957,10 +4824,10 @@
         <v>39</v>
       </c>
       <c r="B179" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C179" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E179" t="s">
         <v>61</v>
@@ -4971,10 +4838,10 @@
         <v>39</v>
       </c>
       <c r="B180" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C180" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E180" t="s">
         <v>61</v>
@@ -4985,10 +4852,10 @@
         <v>39</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C181" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E181" t="s">
         <v>61</v>
@@ -4999,10 +4866,10 @@
         <v>39</v>
       </c>
       <c r="B182" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C182" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E182" t="s">
         <v>61</v>
@@ -5013,10 +4880,10 @@
         <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C183" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E183" t="s">
         <v>61</v>
@@ -5027,10 +4894,10 @@
         <v>39</v>
       </c>
       <c r="B184" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C184" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E184" t="s">
         <v>61</v>
@@ -5041,10 +4908,10 @@
         <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C185" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E185" t="s">
         <v>61</v>
@@ -5055,10 +4922,10 @@
         <v>39</v>
       </c>
       <c r="B186" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C186" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E186" t="s">
         <v>61</v>
@@ -5069,10 +4936,10 @@
         <v>39</v>
       </c>
       <c r="B187" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C187" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E187" t="s">
         <v>61</v>
@@ -5083,10 +4950,10 @@
         <v>39</v>
       </c>
       <c r="B188" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C188" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E188" t="s">
         <v>61</v>
@@ -5097,10 +4964,10 @@
         <v>39</v>
       </c>
       <c r="B189" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C189" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E189" t="s">
         <v>63</v>
@@ -5111,10 +4978,10 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C190" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E190" t="s">
         <v>63</v>
@@ -5125,10 +4992,10 @@
         <v>39</v>
       </c>
       <c r="B191" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C191" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E191" t="s">
         <v>63</v>
@@ -5139,10 +5006,10 @@
         <v>39</v>
       </c>
       <c r="B192" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C192" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E192" t="s">
         <v>63</v>
@@ -5153,10 +5020,10 @@
         <v>39</v>
       </c>
       <c r="B193" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C193" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E193" t="s">
         <v>63</v>
@@ -5181,10 +5048,10 @@
         <v>39</v>
       </c>
       <c r="B195" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C195" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E195" t="s">
         <v>63</v>
@@ -5195,10 +5062,10 @@
         <v>39</v>
       </c>
       <c r="B196" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C196" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E196" t="s">
         <v>63</v>
@@ -5209,10 +5076,10 @@
         <v>39</v>
       </c>
       <c r="B197" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C197" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E197" t="s">
         <v>63</v>
@@ -5237,10 +5104,10 @@
         <v>39</v>
       </c>
       <c r="B199" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C199" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E199" t="s">
         <v>63</v>
@@ -5251,10 +5118,10 @@
         <v>39</v>
       </c>
       <c r="B200" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C200" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E200" t="s">
         <v>63</v>
@@ -5265,10 +5132,10 @@
         <v>39</v>
       </c>
       <c r="B201" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C201" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E201" t="s">
         <v>63</v>
@@ -5279,10 +5146,10 @@
         <v>39</v>
       </c>
       <c r="B202" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C202" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E202" t="s">
         <v>63</v>
@@ -5293,10 +5160,10 @@
         <v>39</v>
       </c>
       <c r="B203" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C203" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E203" t="s">
         <v>63</v>
@@ -5307,10 +5174,10 @@
         <v>39</v>
       </c>
       <c r="B204" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C204" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E204" t="s">
         <v>63</v>
@@ -5321,10 +5188,10 @@
         <v>39</v>
       </c>
       <c r="B205" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C205" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E205" t="s">
         <v>63</v>
@@ -5335,10 +5202,10 @@
         <v>39</v>
       </c>
       <c r="B206" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C206" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E206" t="s">
         <v>63</v>
@@ -5349,10 +5216,10 @@
         <v>39</v>
       </c>
       <c r="B207" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C207" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E207" t="s">
         <v>63</v>
@@ -5363,10 +5230,10 @@
         <v>39</v>
       </c>
       <c r="B208" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C208" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E208" t="s">
         <v>63</v>
@@ -5377,10 +5244,10 @@
         <v>39</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C209" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E209" t="s">
         <v>63</v>
@@ -5391,13 +5258,13 @@
         <v>39</v>
       </c>
       <c r="B210" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C210" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E210" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5405,13 +5272,13 @@
         <v>39</v>
       </c>
       <c r="B211" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C211" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E211" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5419,13 +5286,13 @@
         <v>39</v>
       </c>
       <c r="B212" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C212" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E212" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5433,13 +5300,13 @@
         <v>39</v>
       </c>
       <c r="B213" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C213" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E213" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5447,13 +5314,13 @@
         <v>39</v>
       </c>
       <c r="B214" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C214" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E214" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5461,13 +5328,13 @@
         <v>39</v>
       </c>
       <c r="B215" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C215" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E215" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5475,13 +5342,13 @@
         <v>39</v>
       </c>
       <c r="B216" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C216" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E216" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5489,13 +5356,13 @@
         <v>39</v>
       </c>
       <c r="B217" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C217" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E217" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5503,13 +5370,13 @@
         <v>39</v>
       </c>
       <c r="B218" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C218" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E218" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5517,13 +5384,13 @@
         <v>39</v>
       </c>
       <c r="B219" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C219" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E219" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5531,13 +5398,13 @@
         <v>39</v>
       </c>
       <c r="B220" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C220" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E220" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5545,13 +5412,13 @@
         <v>39</v>
       </c>
       <c r="B221" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C221" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E221" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -5559,13 +5426,13 @@
         <v>39</v>
       </c>
       <c r="B222" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C222" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E222" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -5573,13 +5440,13 @@
         <v>39</v>
       </c>
       <c r="B223" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C223" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E223" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
@@ -5587,13 +5454,13 @@
         <v>39</v>
       </c>
       <c r="B224" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C224" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E224" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -5601,13 +5468,13 @@
         <v>39</v>
       </c>
       <c r="B225" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C225" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E225" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -5615,13 +5482,13 @@
         <v>39</v>
       </c>
       <c r="B226" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C226" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E226" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -5629,13 +5496,13 @@
         <v>39</v>
       </c>
       <c r="B227" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C227" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E227" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -5643,13 +5510,13 @@
         <v>39</v>
       </c>
       <c r="B228" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C228" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E228" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
@@ -5657,13 +5524,13 @@
         <v>39</v>
       </c>
       <c r="B229" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C229" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E229" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -5671,13 +5538,13 @@
         <v>39</v>
       </c>
       <c r="B230" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C230" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E230" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5685,13 +5552,13 @@
         <v>39</v>
       </c>
       <c r="B231" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C231" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E231" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -5699,13 +5566,13 @@
         <v>39</v>
       </c>
       <c r="B232" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C232" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E232" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5713,13 +5580,13 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C233" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E233" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5727,13 +5594,13 @@
         <v>39</v>
       </c>
       <c r="B234" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C234" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E234" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5741,13 +5608,13 @@
         <v>39</v>
       </c>
       <c r="B235" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C235" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E235" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5755,13 +5622,13 @@
         <v>39</v>
       </c>
       <c r="B236" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C236" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E236" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5769,13 +5636,13 @@
         <v>39</v>
       </c>
       <c r="B237" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C237" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E237" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5783,10 +5650,10 @@
         <v>39</v>
       </c>
       <c r="B238" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C238" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E238" t="s">
         <v>57</v>
@@ -5797,10 +5664,10 @@
         <v>39</v>
       </c>
       <c r="B239" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C239" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E239" t="s">
         <v>57</v>
@@ -5811,10 +5678,10 @@
         <v>39</v>
       </c>
       <c r="B240" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C240" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E240" t="s">
         <v>57</v>
@@ -5825,10 +5692,10 @@
         <v>39</v>
       </c>
       <c r="B241" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C241" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E241" t="s">
         <v>57</v>
@@ -5839,10 +5706,10 @@
         <v>39</v>
       </c>
       <c r="B242" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C242" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E242" t="s">
         <v>57</v>
@@ -5853,10 +5720,10 @@
         <v>39</v>
       </c>
       <c r="B243" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C243" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E243" t="s">
         <v>57</v>
@@ -5867,10 +5734,10 @@
         <v>39</v>
       </c>
       <c r="B244" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C244" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E244" t="s">
         <v>52</v>
@@ -5881,10 +5748,10 @@
         <v>39</v>
       </c>
       <c r="B245" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C245" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E245" t="s">
         <v>52</v>
@@ -5895,10 +5762,10 @@
         <v>39</v>
       </c>
       <c r="B246" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C246" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E246" t="s">
         <v>52</v>
@@ -5909,10 +5776,10 @@
         <v>39</v>
       </c>
       <c r="B247" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C247" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E247" t="s">
         <v>52</v>
@@ -5923,10 +5790,10 @@
         <v>39</v>
       </c>
       <c r="B248" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C248" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E248" t="s">
         <v>52</v>
@@ -5937,10 +5804,10 @@
         <v>39</v>
       </c>
       <c r="B249" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C249" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E249" t="s">
         <v>52</v>
@@ -5951,10 +5818,10 @@
         <v>39</v>
       </c>
       <c r="B250" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C250" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E250" t="s">
         <v>52</v>
@@ -5965,10 +5832,10 @@
         <v>39</v>
       </c>
       <c r="B251" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C251" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E251" t="s">
         <v>52</v>
@@ -5979,10 +5846,10 @@
         <v>39</v>
       </c>
       <c r="B252" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C252" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E252" t="s">
         <v>52</v>
@@ -5993,10 +5860,10 @@
         <v>39</v>
       </c>
       <c r="B253" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C253" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E253" t="s">
         <v>52</v>
@@ -6007,10 +5874,10 @@
         <v>39</v>
       </c>
       <c r="B254" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C254" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E254" t="s">
         <v>52</v>
@@ -6021,10 +5888,10 @@
         <v>39</v>
       </c>
       <c r="B255" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C255" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E255" t="s">
         <v>52</v>
@@ -6035,10 +5902,10 @@
         <v>39</v>
       </c>
       <c r="B256" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C256" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E256" t="s">
         <v>52</v>
@@ -6049,13 +5916,13 @@
         <v>39</v>
       </c>
       <c r="B257" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C257" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E257" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -6063,13 +5930,13 @@
         <v>39</v>
       </c>
       <c r="B258" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C258" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E258" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -6077,13 +5944,13 @@
         <v>39</v>
       </c>
       <c r="B259" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C259" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E259" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
@@ -6091,13 +5958,13 @@
         <v>39</v>
       </c>
       <c r="B260" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C260" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E260" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -6105,13 +5972,13 @@
         <v>39</v>
       </c>
       <c r="B261" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C261" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E261" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -6119,13 +5986,13 @@
         <v>39</v>
       </c>
       <c r="B262" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C262" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E262" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
@@ -6133,13 +6000,13 @@
         <v>39</v>
       </c>
       <c r="B263" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C263" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E263" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6147,13 +6014,13 @@
         <v>39</v>
       </c>
       <c r="B264" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C264" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E264" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6161,13 +6028,13 @@
         <v>39</v>
       </c>
       <c r="B265" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C265" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E265" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6175,13 +6042,13 @@
         <v>39</v>
       </c>
       <c r="B266" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C266" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E266" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6189,13 +6056,13 @@
         <v>39</v>
       </c>
       <c r="B267" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C267" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E267" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6209,7 +6076,7 @@
         <v>65</v>
       </c>
       <c r="E268" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6217,13 +6084,13 @@
         <v>39</v>
       </c>
       <c r="B269" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C269" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E269" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6231,13 +6098,13 @@
         <v>39</v>
       </c>
       <c r="B270" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C270" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E270" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6245,13 +6112,13 @@
         <v>39</v>
       </c>
       <c r="B271" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C271" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E271" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6259,13 +6126,13 @@
         <v>39</v>
       </c>
       <c r="B272" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C272" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E272" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6273,10 +6140,10 @@
         <v>39</v>
       </c>
       <c r="B273" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C273" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E273" t="s">
         <v>60</v>
@@ -6287,10 +6154,10 @@
         <v>39</v>
       </c>
       <c r="B274" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C274" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E274" t="s">
         <v>60</v>
@@ -6301,10 +6168,10 @@
         <v>39</v>
       </c>
       <c r="B275" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C275" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E275" t="s">
         <v>60</v>
@@ -6315,10 +6182,10 @@
         <v>39</v>
       </c>
       <c r="B276" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C276" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E276" t="s">
         <v>60</v>
@@ -6329,10 +6196,10 @@
         <v>39</v>
       </c>
       <c r="B277" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C277" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E277" t="s">
         <v>60</v>
@@ -6343,10 +6210,10 @@
         <v>39</v>
       </c>
       <c r="B278" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C278" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E278" t="s">
         <v>60</v>
@@ -6357,10 +6224,10 @@
         <v>39</v>
       </c>
       <c r="B279" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C279" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E279" t="s">
         <v>60</v>
@@ -6371,13 +6238,13 @@
         <v>39</v>
       </c>
       <c r="B280" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C280" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E280" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6385,13 +6252,13 @@
         <v>39</v>
       </c>
       <c r="B281" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C281" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E281" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6399,13 +6266,13 @@
         <v>39</v>
       </c>
       <c r="B282" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C282" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E282" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6413,13 +6280,13 @@
         <v>39</v>
       </c>
       <c r="B283" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C283" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E283" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -6427,13 +6294,13 @@
         <v>39</v>
       </c>
       <c r="B284" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C284" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E284" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -6441,13 +6308,13 @@
         <v>39</v>
       </c>
       <c r="B285" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C285" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E285" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -6455,13 +6322,13 @@
         <v>39</v>
       </c>
       <c r="B286" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C286" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E286" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -6469,13 +6336,13 @@
         <v>39</v>
       </c>
       <c r="B287" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C287" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E287" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -6483,13 +6350,13 @@
         <v>39</v>
       </c>
       <c r="B288" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C288" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E288" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -6497,13 +6364,13 @@
         <v>39</v>
       </c>
       <c r="B289" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C289" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E289" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -6511,13 +6378,13 @@
         <v>39</v>
       </c>
       <c r="B290" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C290" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E290" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -6525,13 +6392,13 @@
         <v>39</v>
       </c>
       <c r="B291" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C291" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E291" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -6539,13 +6406,13 @@
         <v>39</v>
       </c>
       <c r="B292" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C292" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E292" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -6553,13 +6420,13 @@
         <v>39</v>
       </c>
       <c r="B293" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C293" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E293" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -6567,13 +6434,13 @@
         <v>39</v>
       </c>
       <c r="B294" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C294" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E294" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -6581,13 +6448,13 @@
         <v>39</v>
       </c>
       <c r="B295" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C295" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E295" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -6595,13 +6462,13 @@
         <v>39</v>
       </c>
       <c r="B296" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C296" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E296" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -6609,13 +6476,13 @@
         <v>39</v>
       </c>
       <c r="B297" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C297" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E297" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -6623,13 +6490,13 @@
         <v>39</v>
       </c>
       <c r="B298" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C298" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E298" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -6637,13 +6504,13 @@
         <v>39</v>
       </c>
       <c r="B299" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C299" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E299" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -6651,13 +6518,13 @@
         <v>39</v>
       </c>
       <c r="B300" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C300" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E300" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -6665,13 +6532,13 @@
         <v>39</v>
       </c>
       <c r="B301" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C301" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E301" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -6679,13 +6546,13 @@
         <v>39</v>
       </c>
       <c r="B302" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C302" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E302" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -6693,13 +6560,13 @@
         <v>39</v>
       </c>
       <c r="B303" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C303" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E303" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -6707,13 +6574,13 @@
         <v>39</v>
       </c>
       <c r="B304" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C304" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E304" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -6721,13 +6588,13 @@
         <v>39</v>
       </c>
       <c r="B305" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C305" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E305" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -6735,13 +6602,13 @@
         <v>39</v>
       </c>
       <c r="B306" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C306" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E306" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -6749,13 +6616,13 @@
         <v>39</v>
       </c>
       <c r="B307" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C307" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E307" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -6763,13 +6630,13 @@
         <v>39</v>
       </c>
       <c r="B308" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C308" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E308" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -6777,13 +6644,13 @@
         <v>39</v>
       </c>
       <c r="B309" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C309" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E309" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -6791,13 +6658,13 @@
         <v>39</v>
       </c>
       <c r="B310" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C310" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E310" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -6805,13 +6672,13 @@
         <v>39</v>
       </c>
       <c r="B311" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C311" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E311" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -6819,13 +6686,13 @@
         <v>39</v>
       </c>
       <c r="B312" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C312" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E312" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -6833,13 +6700,13 @@
         <v>39</v>
       </c>
       <c r="B313" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C313" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E313" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -6847,13 +6714,13 @@
         <v>39</v>
       </c>
       <c r="B314" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C314" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E314" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -6861,13 +6728,13 @@
         <v>39</v>
       </c>
       <c r="B315" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C315" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E315" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -6875,13 +6742,13 @@
         <v>39</v>
       </c>
       <c r="B316" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C316" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E316" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -6889,13 +6756,13 @@
         <v>39</v>
       </c>
       <c r="B317" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C317" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E317" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -6903,13 +6770,13 @@
         <v>39</v>
       </c>
       <c r="B318" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C318" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E318" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -6917,13 +6784,13 @@
         <v>39</v>
       </c>
       <c r="B319" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C319" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E319" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -6931,13 +6798,13 @@
         <v>39</v>
       </c>
       <c r="B320" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C320" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E320" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -6945,13 +6812,13 @@
         <v>39</v>
       </c>
       <c r="B321" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C321" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E321" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -6959,13 +6826,13 @@
         <v>39</v>
       </c>
       <c r="B322" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C322" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E322" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -6973,13 +6840,13 @@
         <v>39</v>
       </c>
       <c r="B323" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C323" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E323" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -6987,13 +6854,13 @@
         <v>39</v>
       </c>
       <c r="B324" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C324" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E324" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7001,13 +6868,13 @@
         <v>39</v>
       </c>
       <c r="B325" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C325" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E325" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7015,13 +6882,13 @@
         <v>39</v>
       </c>
       <c r="B326" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C326" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E326" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7029,13 +6896,13 @@
         <v>39</v>
       </c>
       <c r="B327" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C327" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E327" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -7043,13 +6910,13 @@
         <v>39</v>
       </c>
       <c r="B328" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C328" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E328" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -7057,13 +6924,13 @@
         <v>39</v>
       </c>
       <c r="B329" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C329" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E329" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7077,7 +6944,7 @@
         <v>67</v>
       </c>
       <c r="E330" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7085,13 +6952,13 @@
         <v>39</v>
       </c>
       <c r="B331" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C331" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E331" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7099,13 +6966,13 @@
         <v>39</v>
       </c>
       <c r="B332" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C332" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E332" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7113,13 +6980,13 @@
         <v>39</v>
       </c>
       <c r="B333" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C333" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E333" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7127,10 +6994,10 @@
         <v>39</v>
       </c>
       <c r="B334" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C334" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E334" t="s">
         <v>53</v>
@@ -7141,10 +7008,10 @@
         <v>39</v>
       </c>
       <c r="B335" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C335" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E335" t="s">
         <v>53</v>
@@ -7155,10 +7022,10 @@
         <v>39</v>
       </c>
       <c r="B336" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C336" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E336" t="s">
         <v>53</v>
@@ -7169,10 +7036,10 @@
         <v>39</v>
       </c>
       <c r="B337" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C337" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E337" t="s">
         <v>53</v>
@@ -7183,10 +7050,10 @@
         <v>39</v>
       </c>
       <c r="B338" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C338" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E338" t="s">
         <v>53</v>
@@ -7197,10 +7064,10 @@
         <v>39</v>
       </c>
       <c r="B339" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C339" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E339" t="s">
         <v>53</v>
@@ -7211,10 +7078,10 @@
         <v>39</v>
       </c>
       <c r="B340" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C340" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E340" t="s">
         <v>53</v>
@@ -7225,10 +7092,10 @@
         <v>39</v>
       </c>
       <c r="B341" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C341" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E341" t="s">
         <v>53</v>
@@ -7239,10 +7106,10 @@
         <v>39</v>
       </c>
       <c r="B342" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C342" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E342" t="s">
         <v>53</v>
@@ -7253,10 +7120,10 @@
         <v>39</v>
       </c>
       <c r="B343" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C343" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E343" t="s">
         <v>53</v>
@@ -7267,10 +7134,10 @@
         <v>39</v>
       </c>
       <c r="B344" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C344" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E344" t="s">
         <v>53</v>
@@ -7281,10 +7148,10 @@
         <v>39</v>
       </c>
       <c r="B345" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C345" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E345" t="s">
         <v>53</v>
@@ -7295,10 +7162,10 @@
         <v>39</v>
       </c>
       <c r="B346" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C346" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E346" t="s">
         <v>53</v>
@@ -7309,10 +7176,10 @@
         <v>39</v>
       </c>
       <c r="B347" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C347" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E347" t="s">
         <v>53</v>
@@ -7337,10 +7204,10 @@
         <v>39</v>
       </c>
       <c r="B349" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C349" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E349" t="s">
         <v>53</v>
@@ -7351,10 +7218,10 @@
         <v>39</v>
       </c>
       <c r="B350" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C350" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E350" t="s">
         <v>53</v>
@@ -7365,10 +7232,10 @@
         <v>39</v>
       </c>
       <c r="B351" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C351" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E351" t="s">
         <v>53</v>
@@ -7379,10 +7246,10 @@
         <v>39</v>
       </c>
       <c r="B352" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C352" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E352" t="s">
         <v>53</v>
@@ -7393,13 +7260,13 @@
         <v>39</v>
       </c>
       <c r="B353" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C353" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E353" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
@@ -7407,13 +7274,13 @@
         <v>39</v>
       </c>
       <c r="B354" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C354" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E354" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -7421,13 +7288,13 @@
         <v>39</v>
       </c>
       <c r="B355" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C355" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E355" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -7435,13 +7302,13 @@
         <v>39</v>
       </c>
       <c r="B356" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C356" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E356" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -7449,13 +7316,13 @@
         <v>39</v>
       </c>
       <c r="B357" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C357" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E357" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -7463,13 +7330,13 @@
         <v>39</v>
       </c>
       <c r="B358" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C358" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E358" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -7477,13 +7344,13 @@
         <v>39</v>
       </c>
       <c r="B359" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C359" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E359" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -7491,13 +7358,13 @@
         <v>39</v>
       </c>
       <c r="B360" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C360" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E360" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -7505,13 +7372,13 @@
         <v>39</v>
       </c>
       <c r="B361" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C361" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E361" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -7519,13 +7386,13 @@
         <v>39</v>
       </c>
       <c r="B362" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C362" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E362" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -7533,13 +7400,13 @@
         <v>39</v>
       </c>
       <c r="B363" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C363" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E363" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -7547,13 +7414,13 @@
         <v>39</v>
       </c>
       <c r="B364" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C364" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E364" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -7561,13 +7428,13 @@
         <v>39</v>
       </c>
       <c r="B365" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C365" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E365" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -7575,13 +7442,13 @@
         <v>39</v>
       </c>
       <c r="B366" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C366" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E366" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -7589,13 +7456,13 @@
         <v>39</v>
       </c>
       <c r="B367" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C367" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E367" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -7603,13 +7470,13 @@
         <v>39</v>
       </c>
       <c r="B368" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C368" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E368" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7626,7 +7493,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7655,10 +7522,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="C2">
         <v>20201130</v>
